--- a/twitter/Tweet-Scale.xlsx
+++ b/twitter/Tweet-Scale.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreatLakesAnalytics\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashwini\Documents\GitHub\GLCap\twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="718" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="718"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="365">
   <si>
     <t>AAPL</t>
   </si>
@@ -457,9 +457,6 @@
     <t>b'Inside Apple and Qualcomm\xe2\x80\x99s billion-dollar war over an $18 part https://t.co/95Ka15A16s https://t.co/aNLDdidjsV'</t>
   </si>
   <si>
-    <t>b'BREAKING: Qualcomm asks China to ban the sale and manufacture of Apple iPhones https://t.co/PCfsk6HyHO https://t.co/cCi0HLarJR'</t>
-  </si>
-  <si>
     <t>b'Trudeau grapples with Trump\xe2\x80\x99s mixed messages on Nafta\xe2\x80\x99s fate https://t.co/pEvCb9Z9YW https://t.co/ZYCaa0cets'</t>
   </si>
   <si>
@@ -1124,6 +1121,12 @@
   </si>
   <si>
     <t>Irrevalent to IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">News not related to Apple Inc. </t>
+  </si>
+  <si>
+    <t>o9o</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1533,18 +1536,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1558,10 +1561,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H2" t="s">
         <v>350</v>
-      </c>
-      <c r="H2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1572,13 +1575,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3" t="s">
         <v>352</v>
-      </c>
-      <c r="H3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,13 +1592,13 @@
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" t="s">
         <v>354</v>
-      </c>
-      <c r="H4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1606,13 +1609,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" t="s">
         <v>356</v>
-      </c>
-      <c r="H5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1640,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1662,7 +1665,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,7 +1676,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1684,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1695,7 +1698,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1788,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1804,7 @@
     <col min="3" max="3" width="155.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1811,1735 +1814,2209 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>9.1884377091265306E+17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43021.597222222219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.2116125554047706E+17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43027.992268518516</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>9.18118E+17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43019.595138888886</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9.21508E+17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43028.947916666664</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9.18521E+17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43020.706944444442</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>9.22563E+17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43031.859027777777</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>9.22674E+17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43032.165972222225</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9.2318E+17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43033.563194444447</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9.1905516334792205E+17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43022.180555555555</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9.22652E+17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43032.104861111111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9.22527E+17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43031.761805555558</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9.16358E+17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43014.737500000003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9.1340321120096998E+17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43006.584143518521</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9.21549102852304E+17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43029.062523148146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>9.2314E+17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43033.451388888891</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9.0743059124680704E+17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42990.102847222224</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9.0732113722650202E+17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42989.800810185188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9.0757866111261005E+17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42990.511446759258</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>9.21357E+17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43028.531944444447</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>9.1844E+17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43020.481944444444</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>9.164E+17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43014.852083333331</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9.0773334052608397E+17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42990.938275462962</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>9.19938E+17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43024.616666666669</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>9.20485E+17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43026.125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9.0770967817976602E+17</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42990.872986111113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9.1092688122177498E+17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42999.750775462962</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>9.21384E+17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43028.606249999997</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9.0805797692949197E+17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42991.834108796298</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>9.1983E+17</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43024.318055555559</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9.21025E+17</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43027.614583333336</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>9.17774E+17</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43018.644444444442</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>9.23173E+17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43033.542361111111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9.16936611203616E+17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43016.334467592591</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9.1658554707381005E+17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43015.365717592591</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9.1490139207837594E+17</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43010.718333333331</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9.1197247770152102E+17</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43002.636064814818</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9.1065502312154701E+17</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42999.000590277778</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9.1052539701972096E+17</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42998.642893518518</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9.0808816136820301E+17</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42991.917395833334</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9.0724137529639296E+17</v>
+      </c>
+      <c r="B41" s="1">
+        <v>42989.580717592595</v>
+      </c>
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9.1139080717700698E+17</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43001.030960648146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9.1127131301212506E+17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43000.701226851852</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9.0776454508244902E+17</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42991.024386574078</v>
+      </c>
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9.0793329849150605E+17</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42991.490057870367</v>
+      </c>
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9.0847773646066803E+17</v>
+      </c>
+      <c r="B46" s="1">
+        <v>42992.992418981485</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9.0885396392309901E+17</v>
+      </c>
+      <c r="B47" s="1">
+        <v>42994.030613425923</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9.0865919802780403E+17</v>
+      </c>
+      <c r="B48" s="1">
+        <v>42993.493159722224</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>9.0811919501084198E+17</v>
+      </c>
+      <c r="B49" s="1">
+        <v>42992.003032407411</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>9.16191E+17</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43014.277083333334</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9.19912E+17</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43024.544444444444</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>9.2277587972955302E+17</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43032.447777777779</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>9.0828899219350694E+17</v>
+      </c>
+      <c r="B53" s="1">
+        <v>42992.471585648149</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>9.0806930056457805E+17</v>
+      </c>
+      <c r="B54" s="1">
+        <v>42991.865358796298</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9.1374230851998502E+17</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43007.519872685189</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7.7325810897410406E+17</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42619.85733796296</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7.7058566052056205E+17</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42612.482777777775</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7.9104125592071706E+17</v>
+      </c>
+      <c r="B58" s="1">
+        <v>42668.929467592592</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>8.1746206914661901E+17</v>
+      </c>
+      <c r="B59" s="1">
+        <v>42741.837025462963</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>8.8046917010164506E+17</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B60" s="1">
         <v>42915.703506944446</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C60" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8.1746206914661901E+17</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42741.837025462963</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7.9104125592071706E+17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42668.929467592592</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>9.20719E+17</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43026.772222222222</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>9.21232E+17</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43028.188194444447</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>9.22724E+17</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43032.304166666669</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>9.1094055374706598E+17</v>
+      </c>
+      <c r="B64" s="1">
+        <v>42999.788506944446</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>9.1217767179430195E+17</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43003.202303240738</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9.1070213949586598E+17</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42999.130601851852</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9.1079193178508902E+17</v>
+      </c>
+      <c r="B67" s="1">
+        <v>42999.378379629627</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9.1195648973196403E+17</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43002.591956018521</v>
+      </c>
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>9.1058386898988595E+17</v>
+      </c>
+      <c r="B69" s="1">
+        <v>42998.804236111115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9.1560573212858701E+17</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43012.661944444444</v>
+      </c>
+      <c r="C70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>9.1446E+17</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43009.500694444447</v>
+      </c>
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7.7432162892670502E+17</v>
+      </c>
+      <c r="B72" s="1">
+        <v>42622.792094907411</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9.0764611796537702E+17</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42990.697592592594</v>
+      </c>
+      <c r="C73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>9.0805597292458803E+17</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42991.828576388885</v>
+      </c>
+      <c r="C74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>9.21463E+17</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43028.824999999997</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>9.15192E+17</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43011.520138888889</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>9.0769161850083302E+17</v>
+      </c>
+      <c r="B77" s="1">
+        <v>42990.823148148149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>9.1852794371819904E+17</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43020.725706018522</v>
+      </c>
+      <c r="C78" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9.1872549221942797E+17</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43021.270844907405</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7.7180023281628698E+17</v>
+      </c>
+      <c r="B80" s="1">
+        <v>42615.834363425929</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>9.2105E+17</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43027.684027777781</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>9.1314726102197005E+17</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43005.877858796295</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>9.18215E+17</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43019.863194444442</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>9.22884E+17</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43032.744444444441</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>9.22991E+17</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43033.041666666664</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>9.20637E+17</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43026.545138888891</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>9.22836E+17</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43032.613888888889</v>
+      </c>
+      <c r="C87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>9.23223E+17</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43033.679861111108</v>
+      </c>
+      <c r="C88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>9.20049E+17</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43024.923611111109</v>
+      </c>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>9.21011E+17</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43027.57708333333</v>
+      </c>
+      <c r="C90" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>9.1177848769811994E+17</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43002.100763888891</v>
+      </c>
+      <c r="C91" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9.1089208227279603E+17</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42999.654745370368</v>
+      </c>
+      <c r="C92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9.1193702037666202E+17</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43002.538229166668</v>
+      </c>
+      <c r="C93" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>9.1105854729892595E+17</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43000.11409722222</v>
+      </c>
+      <c r="C94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>9.20454E+17</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43026.041666666664</v>
+      </c>
+      <c r="C95" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>9.23227E+17</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43033.692361111112</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>9.16767E+17</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43015.865277777775</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>9.1344258372406797E+17</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43006.692789351851</v>
+      </c>
+      <c r="C98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>9.1354199101477197E+17</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43006.967106481483</v>
+      </c>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>9.0869374353602906E+17</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42993.588483796295</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>9.15264E+17</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43011.717361111114</v>
+      </c>
+      <c r="C101" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>9.21172E+17</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43028.020833333336</v>
+      </c>
+      <c r="C102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>9.22809E+17</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43032.538888888892</v>
+      </c>
+      <c r="C103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>9.1531924682097395E+17</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43011.871388888889</v>
+      </c>
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>9.21196E+17</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43028.088888888888</v>
+      </c>
+      <c r="C105" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>9.21406E+17</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43028.667361111111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>9.17363E+17</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43017.511111111111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9.1887598804137101E+17</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43021.68613425926</v>
+      </c>
+      <c r="C108" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>9.1633626111956096E+17</v>
+      </c>
+      <c r="B109" s="1">
+        <v>43014.677824074075</v>
+      </c>
+      <c r="C109" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>9.1662692947791398E+17</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43015.479907407411</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>9.1671643566942195E+17</v>
+      </c>
+      <c r="B111" s="1">
+        <v>43015.726898148147</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>9.1699687175479706E+17</v>
+      </c>
+      <c r="B112" s="1">
+        <v>43016.500752314816</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>9.1695901624027494E+17</v>
+      </c>
+      <c r="B113" s="1">
+        <v>43016.396296296298</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>9.1705790789159706E+17</v>
+      </c>
+      <c r="B114" s="1">
+        <v>43016.669189814813</v>
+      </c>
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>9.0768310236922202E+17</v>
+      </c>
+      <c r="B115" s="1">
+        <v>42990.79965277778</v>
+      </c>
+      <c r="C115" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>9.19901E+17</v>
+      </c>
+      <c r="B116" s="1">
+        <v>43024.51458333333</v>
+      </c>
+      <c r="C116" t="s">
+        <v>88</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>9.0769886311657395E+17</v>
+      </c>
+      <c r="B117" s="1">
+        <v>42990.843136574076</v>
+      </c>
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>9.14836E+17</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43010.536111111112</v>
+      </c>
+      <c r="C118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>9.22789E+17</v>
+      </c>
+      <c r="B119" s="1">
+        <v>43032.482638888891</v>
+      </c>
+      <c r="C119" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>9.2321171830148698E+17</v>
+      </c>
+      <c r="B120" s="1">
+        <v>43033.650462962964</v>
+      </c>
+      <c r="C120" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>9.1638765298278797E+17</v>
+      </c>
+      <c r="B121" s="1">
+        <v>43014.81962962963</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>9.1664204022559501E+17</v>
+      </c>
+      <c r="B122" s="1">
+        <v>43015.521608796298</v>
+      </c>
+      <c r="C122" t="s">
+        <v>119</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>9.1238862024952998E+17</v>
+      </c>
+      <c r="B123" s="1">
+        <v>43003.784409722219</v>
+      </c>
+      <c r="C123" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>9.23328E+17</v>
+      </c>
+      <c r="B124" s="1">
+        <v>43033.970138888886</v>
+      </c>
+      <c r="C124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>9.1887904553378995E+17</v>
+      </c>
+      <c r="B125" s="1">
+        <v>43021.694571759261</v>
+      </c>
+      <c r="C125" t="s">
+        <v>364</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>9.20788E+17</v>
+      </c>
+      <c r="B126" s="1">
+        <v>43026.961805555555</v>
+      </c>
+      <c r="C126" t="s">
+        <v>75</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>9.1591625084442202E+17</v>
+      </c>
+      <c r="B127" s="1">
+        <v>43013.518807870372</v>
+      </c>
+      <c r="C127" t="s">
+        <v>124</v>
+      </c>
+      <c r="D127" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>9.1633870724184806E+17</v>
+      </c>
+      <c r="B128" s="1">
+        <v>43014.684571759259</v>
+      </c>
+      <c r="C128" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>9.1235414553287795E+17</v>
+      </c>
+      <c r="B129" s="1">
+        <v>43003.689270833333</v>
+      </c>
+      <c r="C129" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>9.22433E+17</v>
+      </c>
+      <c r="B130" s="1">
+        <v>43031.5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>61</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>9.20606E+17</v>
+      </c>
+      <c r="B131" s="1">
+        <v>43026.459722222222</v>
+      </c>
+      <c r="C131" t="s">
+        <v>79</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>9.21057E+17</v>
+      </c>
+      <c r="B132" s="1">
+        <v>43027.703472222223</v>
+      </c>
+      <c r="C132" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>9.1704692969073395E+17</v>
+      </c>
+      <c r="B133" s="1">
+        <v>43016.638888888891</v>
+      </c>
+      <c r="C133" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>9.1431995385517594E+17</v>
+      </c>
+      <c r="B134" s="1">
+        <v>43009.113865740743</v>
+      </c>
+      <c r="C134" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>9.1365553003553498E+17</v>
+      </c>
+      <c r="B135" s="1">
+        <v>43007.280405092592</v>
+      </c>
+      <c r="C135" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>9.2257241917215501E+17</v>
+      </c>
+      <c r="B136" s="1">
+        <v>43031.886331018519</v>
+      </c>
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>9.15322E+17</v>
+      </c>
+      <c r="B137" s="1">
+        <v>43011.878472222219</v>
+      </c>
+      <c r="C137" t="s">
+        <v>109</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>9.15426E+17</v>
+      </c>
+      <c r="B138" s="1">
+        <v>43012.165972222225</v>
+      </c>
+      <c r="C138" t="s">
+        <v>106</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>9.17388E+17</v>
+      </c>
+      <c r="B139" s="1">
+        <v>43017.579861111109</v>
+      </c>
+      <c r="C139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>9.0674240629241395E+17</v>
+      </c>
+      <c r="B140" s="1">
+        <v>42988.203819444447</v>
+      </c>
+      <c r="C140" t="s">
+        <v>197</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>9.2324802730482803E+17</v>
+      </c>
+      <c r="B141" s="1">
+        <v>43033.750659722224</v>
+      </c>
+      <c r="C141" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>9.1888241074129306E+17</v>
+      </c>
+      <c r="B142" s="1">
+        <v>43021.70385416667</v>
+      </c>
+      <c r="C142" t="s">
+        <v>140</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>9.0768009229737498E+17</v>
+      </c>
+      <c r="B143" s="1">
+        <v>42990.791342592594</v>
+      </c>
+      <c r="C143" t="s">
+        <v>188</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>9.22813E+17</v>
+      </c>
+      <c r="B144" s="1">
+        <v>43032.548611111109</v>
+      </c>
+      <c r="C144" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>9.1994E+17</v>
+      </c>
+      <c r="B145" s="1">
+        <v>43024.622916666667</v>
+      </c>
+      <c r="C145" t="s">
+        <v>85</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>9.2047E+17</v>
+      </c>
+      <c r="B146" s="1">
+        <v>43026.083333333336</v>
+      </c>
+      <c r="C146" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>9.18888E+17</v>
+      </c>
+      <c r="B147" s="1">
+        <v>43021.719444444447</v>
+      </c>
+      <c r="C147" t="s">
+        <v>90</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>9.18341E+17</v>
+      </c>
+      <c r="B148" s="1">
+        <v>43020.208333333336</v>
+      </c>
+      <c r="C148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>7.8810527310572301E+17</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B149" s="1">
         <v>42660.827708333331</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C149" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7.7432162892670502E+17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42622.792094907411</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D149" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>7.7355516738797901E+17</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B150" s="1">
         <v>42620.677060185182</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C150" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7.7325810897410406E+17</v>
-      </c>
-      <c r="B8" s="1">
-        <v>42619.85733796296</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>7.7181655708103795E+17</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B151" s="1">
         <v>42615.87940972222</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C151" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7.7180023281628698E+17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42615.834363425929</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7.7058566052056205E+17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>42612.482777777775</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9.23328E+17</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43033.970138888886</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>9.23227E+17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43033.692361111112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>9.23223E+17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43033.679861111108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>9.2318E+17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43033.563194444447</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>9.23173E+17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43033.542361111111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>9.2314E+17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43033.451388888891</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>9.22991E+17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43033.041666666664</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>9.22884E+17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43032.744444444441</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>9.22836E+17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43032.613888888889</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>9.22813E+17</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43032.548611111109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>9.22809E+17</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43032.538888888892</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>9.22789E+17</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43032.482638888891</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>9.22724E+17</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43032.304166666669</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>9.22674E+17</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43032.165972222225</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>9.22652E+17</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43032.104861111111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>9.22563E+17</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43031.859027777777</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>9.22527E+17</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43031.761805555558</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>9.22433E+17</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43031.5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>9.21508E+17</v>
-      </c>
-      <c r="B30" s="1">
-        <v>43028.947916666664</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>9.21463E+17</v>
-      </c>
-      <c r="B31" s="1">
-        <v>43028.824999999997</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>9.21406E+17</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43028.667361111111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>9.21384E+17</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43028.606249999997</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>9.21357E+17</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43028.531944444447</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>9.21265E+17</v>
-      </c>
-      <c r="B35" s="1">
-        <v>43028.279166666667</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>9.21232E+17</v>
-      </c>
-      <c r="B36" s="1">
-        <v>43028.188194444447</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>9.21196E+17</v>
-      </c>
-      <c r="B37" s="1">
-        <v>43028.088888888888</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>9.21172E+17</v>
-      </c>
-      <c r="B38" s="1">
-        <v>43028.020833333336</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>9.21057E+17</v>
-      </c>
-      <c r="B39" s="1">
-        <v>43027.703472222223</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>9.2105E+17</v>
-      </c>
-      <c r="B40" s="1">
-        <v>43027.684027777781</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>9.21025E+17</v>
-      </c>
-      <c r="B41" s="1">
-        <v>43027.614583333336</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>9.21011E+17</v>
-      </c>
-      <c r="B42" s="1">
-        <v>43027.57708333333</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>9.20788E+17</v>
-      </c>
-      <c r="B43" s="1">
-        <v>43026.961805555555</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>9.20719E+17</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43026.772222222222</v>
-      </c>
-      <c r="C44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="D151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>9.154E+17</v>
+      </c>
+      <c r="B152" s="1">
+        <v>43012.09375</v>
+      </c>
+      <c r="C152" t="s">
+        <v>107</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>9.15325E+17</v>
+      </c>
+      <c r="B153" s="1">
+        <v>43011.888194444444</v>
+      </c>
+      <c r="C153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>9.0802781881405402E+17</v>
+      </c>
+      <c r="B154" s="1">
+        <v>42991.750891203701</v>
+      </c>
+      <c r="C154" t="s">
+        <v>180</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
         <v>9.2066E+17</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B155" s="1">
         <v>43026.609027777777</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C155" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>9.20637E+17</v>
-      </c>
-      <c r="B46" s="1">
-        <v>43026.545138888891</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>9.20606E+17</v>
-      </c>
-      <c r="B47" s="1">
-        <v>43026.459722222222</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>9.20485E+17</v>
-      </c>
-      <c r="B48" s="1">
-        <v>43026.125</v>
-      </c>
-      <c r="C48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>9.2047E+17</v>
-      </c>
-      <c r="B49" s="1">
-        <v>43026.083333333336</v>
-      </c>
-      <c r="C49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>9.20454E+17</v>
-      </c>
-      <c r="B50" s="1">
-        <v>43026.041666666664</v>
-      </c>
-      <c r="C50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>9.20049E+17</v>
-      </c>
-      <c r="B51" s="1">
-        <v>43024.923611111109</v>
-      </c>
-      <c r="C51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>9.19947E+17</v>
-      </c>
-      <c r="B52" s="1">
-        <v>43024.640277777777</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>9.1994E+17</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43024.622916666667</v>
-      </c>
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>9.19938E+17</v>
-      </c>
-      <c r="B54" s="1">
-        <v>43024.616666666669</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>9.19912E+17</v>
-      </c>
-      <c r="B55" s="1">
-        <v>43024.544444444444</v>
-      </c>
-      <c r="C55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>9.19901E+17</v>
-      </c>
-      <c r="B56" s="1">
-        <v>43024.51458333333</v>
-      </c>
-      <c r="C56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>9.1983E+17</v>
-      </c>
-      <c r="B57" s="1">
-        <v>43024.318055555559</v>
-      </c>
-      <c r="C57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>9.18888E+17</v>
-      </c>
-      <c r="B58" s="1">
-        <v>43021.719444444447</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>9.18521E+17</v>
-      </c>
-      <c r="B59" s="1">
-        <v>43020.706944444442</v>
-      </c>
-      <c r="C59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>9.1844E+17</v>
-      </c>
-      <c r="B60" s="1">
-        <v>43020.481944444444</v>
-      </c>
-      <c r="C60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>9.18341E+17</v>
-      </c>
-      <c r="B61" s="1">
-        <v>43020.208333333336</v>
-      </c>
-      <c r="C61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>9.18215E+17</v>
-      </c>
-      <c r="B62" s="1">
-        <v>43019.863194444442</v>
-      </c>
-      <c r="C62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>9.18118E+17</v>
-      </c>
-      <c r="B63" s="1">
-        <v>43019.595138888886</v>
-      </c>
-      <c r="C63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>9.17774E+17</v>
-      </c>
-      <c r="B64" s="1">
-        <v>43018.644444444442</v>
-      </c>
-      <c r="C64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="D155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
         <v>9.17691E+17</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B156" s="1">
         <v>43018.417361111111</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C156" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>9.17388E+17</v>
-      </c>
-      <c r="B66" s="1">
-        <v>43017.579861111109</v>
-      </c>
-      <c r="C66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>9.17363E+17</v>
-      </c>
-      <c r="B67" s="1">
-        <v>43017.511111111111</v>
-      </c>
-      <c r="C67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>9.16767E+17</v>
-      </c>
-      <c r="B68" s="1">
-        <v>43015.865277777775</v>
-      </c>
-      <c r="C68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>9.164E+17</v>
-      </c>
-      <c r="B69" s="1">
-        <v>43014.852083333331</v>
-      </c>
-      <c r="C69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>9.16358E+17</v>
-      </c>
-      <c r="B70" s="1">
-        <v>43014.737500000003</v>
-      </c>
-      <c r="C70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>9.16262E+17</v>
-      </c>
-      <c r="B71" s="1">
-        <v>43014.472916666666</v>
-      </c>
-      <c r="C71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>9.16191E+17</v>
-      </c>
-      <c r="B72" s="1">
-        <v>43014.277083333334</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="D156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
         <v>9.15518E+17</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B157" s="1">
         <v>43012.418749999997</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C157" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>9.15426E+17</v>
-      </c>
-      <c r="B74" s="1">
-        <v>43012.165972222225</v>
-      </c>
-      <c r="C74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>9.154E+17</v>
-      </c>
-      <c r="B75" s="1">
-        <v>43012.09375</v>
-      </c>
-      <c r="C75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>9.15325E+17</v>
-      </c>
-      <c r="B76" s="1">
-        <v>43011.888194444444</v>
-      </c>
-      <c r="C76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>9.15322E+17</v>
-      </c>
-      <c r="B77" s="1">
-        <v>43011.878472222219</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>9.15264E+17</v>
-      </c>
-      <c r="B78" s="1">
-        <v>43011.717361111114</v>
-      </c>
-      <c r="C78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>9.15192E+17</v>
-      </c>
-      <c r="B79" s="1">
-        <v>43011.520138888889</v>
-      </c>
-      <c r="C79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>9.14836E+17</v>
-      </c>
-      <c r="B80" s="1">
-        <v>43010.536111111112</v>
-      </c>
-      <c r="C80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>9.1446E+17</v>
-      </c>
-      <c r="B81" s="1">
-        <v>43009.500694444447</v>
-      </c>
-      <c r="C81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>9.1705790789159706E+17</v>
-      </c>
-      <c r="B82" s="1">
-        <v>43016.669189814813</v>
-      </c>
-      <c r="C82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>9.1699687175479706E+17</v>
-      </c>
-      <c r="B83" s="1">
-        <v>43016.500752314816</v>
-      </c>
-      <c r="C83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>9.1695901624027494E+17</v>
-      </c>
-      <c r="B84" s="1">
-        <v>43016.396296296298</v>
-      </c>
-      <c r="C84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>9.16936611203616E+17</v>
-      </c>
-      <c r="B85" s="1">
-        <v>43016.334467592591</v>
-      </c>
-      <c r="C85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>9.1671643566942195E+17</v>
-      </c>
-      <c r="B86" s="1">
-        <v>43015.726898148147</v>
-      </c>
-      <c r="C86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>9.1664204022559501E+17</v>
-      </c>
-      <c r="B87" s="1">
-        <v>43015.521608796298</v>
-      </c>
-      <c r="C87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>9.1662692947791398E+17</v>
-      </c>
-      <c r="B88" s="1">
-        <v>43015.479907407411</v>
-      </c>
-      <c r="C88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>9.1658554707381005E+17</v>
-      </c>
-      <c r="B89" s="1">
-        <v>43015.365717592591</v>
-      </c>
-      <c r="C89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>9.1638765298278797E+17</v>
-      </c>
-      <c r="B90" s="1">
-        <v>43014.81962962963</v>
-      </c>
-      <c r="C90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>9.1633626111956096E+17</v>
-      </c>
-      <c r="B91" s="1">
-        <v>43014.677824074075</v>
-      </c>
-      <c r="C91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>9.1591625084442202E+17</v>
-      </c>
-      <c r="B92" s="1">
-        <v>43013.518807870372</v>
-      </c>
-      <c r="C92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>9.1531924682097395E+17</v>
-      </c>
-      <c r="B93" s="1">
-        <v>43011.871388888889</v>
-      </c>
-      <c r="C93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>9.21549102852304E+17</v>
-      </c>
-      <c r="B94" s="1">
-        <v>43029.062523148146</v>
-      </c>
-      <c r="C94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>9.2116125554047706E+17</v>
-      </c>
-      <c r="B95" s="1">
-        <v>43027.992268518516</v>
-      </c>
-      <c r="C95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>9.1905516334792205E+17</v>
-      </c>
-      <c r="B96" s="1">
-        <v>43022.180555555555</v>
-      </c>
-      <c r="C96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>9.1887598804137101E+17</v>
-      </c>
-      <c r="B97" s="1">
-        <v>43021.68613425926</v>
-      </c>
-      <c r="C97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>9.1884377091265306E+17</v>
-      </c>
-      <c r="B98" s="1">
-        <v>43021.597222222219</v>
-      </c>
-      <c r="C98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>9.1872549221942797E+17</v>
-      </c>
-      <c r="B99" s="1">
-        <v>43021.270844907405</v>
-      </c>
-      <c r="C99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>9.1852794371819904E+17</v>
-      </c>
-      <c r="B100" s="1">
-        <v>43020.725706018522</v>
-      </c>
-      <c r="C100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>9.1704692969073395E+17</v>
-      </c>
-      <c r="B101" s="1">
-        <v>43016.638888888891</v>
-      </c>
-      <c r="C101" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>9.1633870724184806E+17</v>
-      </c>
-      <c r="B102" s="1">
-        <v>43014.684571759259</v>
-      </c>
-      <c r="C102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>9.2324802730482803E+17</v>
-      </c>
-      <c r="B103" s="1">
-        <v>43033.750659722224</v>
-      </c>
-      <c r="C103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>9.2321171830148698E+17</v>
-      </c>
-      <c r="B104" s="1">
-        <v>43033.650462962964</v>
-      </c>
-      <c r="C104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>9.2277587972955302E+17</v>
-      </c>
-      <c r="B105" s="1">
-        <v>43032.447777777779</v>
-      </c>
-      <c r="C105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>9.2257241917215501E+17</v>
-      </c>
-      <c r="B106" s="1">
-        <v>43031.886331018519</v>
-      </c>
-      <c r="C106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>9.2106902107568499E+17</v>
-      </c>
-      <c r="B107" s="1">
-        <v>43027.737743055557</v>
-      </c>
-      <c r="C107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>9.1888241074129306E+17</v>
-      </c>
-      <c r="B108" s="1">
-        <v>43021.70385416667</v>
-      </c>
-      <c r="C108" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>9.1887904553378995E+17</v>
-      </c>
-      <c r="B109" s="1">
-        <v>43021.694571759261</v>
-      </c>
-      <c r="C109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>9.1854085810172698E+17</v>
-      </c>
-      <c r="B110" s="1">
-        <v>43020.761342592596</v>
-      </c>
-      <c r="C110" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>9.1560573212858701E+17</v>
-      </c>
-      <c r="B111" s="1">
-        <v>43012.661944444444</v>
-      </c>
-      <c r="C111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>9.1490139207837594E+17</v>
-      </c>
-      <c r="B112" s="1">
-        <v>43010.718333333331</v>
-      </c>
-      <c r="C112" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>9.1431995385517594E+17</v>
-      </c>
-      <c r="B113" s="1">
-        <v>43009.113865740743</v>
-      </c>
-      <c r="C113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>9.1374230851998502E+17</v>
-      </c>
-      <c r="B114" s="1">
-        <v>43007.519872685189</v>
-      </c>
-      <c r="C114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>9.1365553003553498E+17</v>
-      </c>
-      <c r="B115" s="1">
-        <v>43007.280405092592</v>
-      </c>
-      <c r="C115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>9.1354199101477197E+17</v>
-      </c>
-      <c r="B116" s="1">
-        <v>43006.967106481483</v>
-      </c>
-      <c r="C116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>9.1344258372406797E+17</v>
-      </c>
-      <c r="B117" s="1">
-        <v>43006.692789351851</v>
-      </c>
-      <c r="C117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>9.1340321120096998E+17</v>
-      </c>
-      <c r="B118" s="1">
-        <v>43006.584143518521</v>
-      </c>
-      <c r="C118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>9.1314726102197005E+17</v>
-      </c>
-      <c r="B119" s="1">
-        <v>43005.877858796295</v>
-      </c>
-      <c r="C119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>9.1238862024952998E+17</v>
-      </c>
-      <c r="B120" s="1">
-        <v>43003.784409722219</v>
-      </c>
-      <c r="C120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>9.1235414553287795E+17</v>
-      </c>
-      <c r="B121" s="1">
-        <v>43003.689270833333</v>
-      </c>
-      <c r="C121" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>9.1217767179430195E+17</v>
-      </c>
-      <c r="B122" s="1">
-        <v>43003.202303240738</v>
-      </c>
-      <c r="C122" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>9.1197247770152102E+17</v>
-      </c>
-      <c r="B123" s="1">
-        <v>43002.636064814818</v>
-      </c>
-      <c r="C123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>9.1195648973196403E+17</v>
-      </c>
-      <c r="B124" s="1">
-        <v>43002.591956018521</v>
-      </c>
-      <c r="C124" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>9.1193702037666202E+17</v>
-      </c>
-      <c r="B125" s="1">
-        <v>43002.538229166668</v>
-      </c>
-      <c r="C125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>9.1177848769811994E+17</v>
-      </c>
-      <c r="B126" s="1">
-        <v>43002.100763888891</v>
-      </c>
-      <c r="C126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>9.1139080717700698E+17</v>
-      </c>
-      <c r="B127" s="1">
-        <v>43001.030960648146</v>
-      </c>
-      <c r="C127" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>9.1127131301212506E+17</v>
-      </c>
-      <c r="B128" s="1">
-        <v>43000.701226851852</v>
-      </c>
-      <c r="C128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>9.1105854729892595E+17</v>
-      </c>
-      <c r="B129" s="1">
-        <v>43000.11409722222</v>
-      </c>
-      <c r="C129" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>9.1094055374706598E+17</v>
-      </c>
-      <c r="B130" s="1">
-        <v>42999.788506944446</v>
-      </c>
-      <c r="C130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>9.1092688122177498E+17</v>
-      </c>
-      <c r="B131" s="1">
-        <v>42999.750775462962</v>
-      </c>
-      <c r="C131" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>9.1089208227279603E+17</v>
-      </c>
-      <c r="B132" s="1">
-        <v>42999.654745370368</v>
-      </c>
-      <c r="C132" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>9.1079193178508902E+17</v>
-      </c>
-      <c r="B133" s="1">
-        <v>42999.378379629627</v>
-      </c>
-      <c r="C133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>9.1070213949586598E+17</v>
-      </c>
-      <c r="B134" s="1">
-        <v>42999.130601851852</v>
-      </c>
-      <c r="C134" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>9.1065502312154701E+17</v>
-      </c>
-      <c r="B135" s="1">
-        <v>42999.000590277778</v>
-      </c>
-      <c r="C135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>9.1058386898988595E+17</v>
-      </c>
-      <c r="B136" s="1">
-        <v>42998.804236111115</v>
-      </c>
-      <c r="C136" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>9.1052539701972096E+17</v>
-      </c>
-      <c r="B137" s="1">
-        <v>42998.642893518518</v>
-      </c>
-      <c r="C137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>9.0885396392309901E+17</v>
-      </c>
-      <c r="B138" s="1">
-        <v>42994.030613425923</v>
-      </c>
-      <c r="C138" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>9.0869374353602906E+17</v>
-      </c>
-      <c r="B139" s="1">
-        <v>42993.588483796295</v>
-      </c>
-      <c r="C139" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>9.0865919802780403E+17</v>
-      </c>
-      <c r="B140" s="1">
-        <v>42993.493159722224</v>
-      </c>
-      <c r="C140" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>9.0847773646066803E+17</v>
-      </c>
-      <c r="B141" s="1">
-        <v>42992.992418981485</v>
-      </c>
-      <c r="C141" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>9.0828899219350694E+17</v>
-      </c>
-      <c r="B142" s="1">
-        <v>42992.471585648149</v>
-      </c>
-      <c r="C142" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>9.0811919501084198E+17</v>
-      </c>
-      <c r="B143" s="1">
-        <v>42992.003032407411</v>
-      </c>
-      <c r="C143" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>9.0808816136820301E+17</v>
-      </c>
-      <c r="B144" s="1">
-        <v>42991.917395833334</v>
-      </c>
-      <c r="C144" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>9.0806930056457805E+17</v>
-      </c>
-      <c r="B145" s="1">
-        <v>42991.865358796298</v>
-      </c>
-      <c r="C145" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>9.0805797692949197E+17</v>
-      </c>
-      <c r="B146" s="1">
-        <v>42991.834108796298</v>
-      </c>
-      <c r="C146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>9.0805597292458803E+17</v>
-      </c>
-      <c r="B147" s="1">
-        <v>42991.828576388885</v>
-      </c>
-      <c r="C147" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>9.0804292084171494E+17</v>
-      </c>
-      <c r="B148" s="1">
-        <v>42991.792557870373</v>
-      </c>
-      <c r="C148" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>9.0802781881405402E+17</v>
-      </c>
-      <c r="B149" s="1">
-        <v>42991.750891203701</v>
-      </c>
-      <c r="C149" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>9.0793329849150605E+17</v>
-      </c>
-      <c r="B150" s="1">
-        <v>42991.490057870367</v>
-      </c>
-      <c r="C150" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>9.0776454508244902E+17</v>
-      </c>
-      <c r="B151" s="1">
-        <v>42991.024386574078</v>
-      </c>
-      <c r="C151" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>9.0773334052608397E+17</v>
-      </c>
-      <c r="B152" s="1">
-        <v>42990.938275462962</v>
-      </c>
-      <c r="C152" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>9.0770967817976602E+17</v>
-      </c>
-      <c r="B153" s="1">
-        <v>42990.872986111113</v>
-      </c>
-      <c r="C153" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>9.0769886311657395E+17</v>
-      </c>
-      <c r="B154" s="1">
-        <v>42990.843136574076</v>
-      </c>
-      <c r="C154" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>9.0769161850083302E+17</v>
-      </c>
-      <c r="B155" s="1">
-        <v>42990.823148148149</v>
-      </c>
-      <c r="C155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>9.0768310236922202E+17</v>
-      </c>
-      <c r="B156" s="1">
-        <v>42990.79965277778</v>
-      </c>
-      <c r="C156" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>9.0768009229737498E+17</v>
-      </c>
-      <c r="B157" s="1">
-        <v>42990.791342592594</v>
-      </c>
-      <c r="C157" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>9.0764611796537702E+17</v>
+        <v>9.0735212327632794E+17</v>
       </c>
       <c r="B158" s="1">
-        <v>42990.697592592594</v>
+        <v>42989.886319444442</v>
       </c>
       <c r="C158" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9.0759374363244096E+17</v>
       </c>
@@ -3547,32 +4024,41 @@
         <v>42990.553067129629</v>
       </c>
       <c r="C159" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>9.0757866111261005E+17</v>
+        <v>190</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>9.19947E+17</v>
       </c>
       <c r="B160" s="1">
-        <v>42990.511446759258</v>
+        <v>43024.640277777777</v>
       </c>
       <c r="C160" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>9.0743059124680704E+17</v>
+        <v>9.1854085810172698E+17</v>
       </c>
       <c r="B161" s="1">
-        <v>42990.102847222224</v>
+        <v>43020.761342592596</v>
       </c>
       <c r="C161" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D161" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>9.0737140040673203E+17</v>
       </c>
@@ -3580,51 +4066,66 @@
         <v>42989.939513888887</v>
       </c>
       <c r="C162" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>9.0735212327632794E+17</v>
+        <v>193</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>9.16262E+17</v>
       </c>
       <c r="B163" s="1">
-        <v>42989.886319444442</v>
+        <v>43014.472916666666</v>
       </c>
       <c r="C163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>9.0732113722650202E+17</v>
+        <v>9.0804292084171494E+17</v>
       </c>
       <c r="B164" s="1">
-        <v>42989.800810185188</v>
+        <v>42991.792557870373</v>
       </c>
       <c r="C164" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>9.0724137529639296E+17</v>
+        <v>9.2106902107568499E+17</v>
       </c>
       <c r="B165" s="1">
-        <v>42989.580717592595</v>
+        <v>43027.737743055557</v>
       </c>
       <c r="C165" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>9.0674240629241395E+17</v>
+        <v>139</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>9.21265E+17</v>
       </c>
       <c r="B166" s="1">
-        <v>42988.203819444447</v>
+        <v>43028.279166666667</v>
       </c>
       <c r="C166" t="s">
-        <v>198</v>
+        <v>67</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3636,7 +4137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -3657,7 +4158,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,7 +4169,7 @@
         <v>43007.786030092589</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -3682,7 +4183,7 @@
         <v>43005.917800925927</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -3696,7 +4197,7 @@
         <v>43005.887928240743</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3710,7 +4211,7 @@
         <v>43005.879837962966</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3738,7 +4239,7 @@
         <v>43003.8125462963</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -3752,7 +4253,7 @@
         <v>42710.90966435185</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3766,7 +4267,7 @@
         <v>42641.929097222222</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3780,7 +4281,7 @@
         <v>42639.762141203704</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3794,7 +4295,7 @@
         <v>43034.041909722226</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3808,7 +4309,7 @@
         <v>43033.720266203702</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -3822,7 +4323,7 @@
         <v>43033.678576388891</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -3836,7 +4337,7 @@
         <v>43033.657372685186</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -3850,7 +4351,7 @@
         <v>43033.636481481481</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -3864,7 +4365,7 @@
         <v>43033.615833333337</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -3878,7 +4379,7 @@
         <v>43033.604317129626</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -3892,7 +4393,7 @@
         <v>43024.860995370371</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3906,7 +4407,7 @@
         <v>43018.94872685185</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3920,7 +4421,7 @@
         <v>43007.147349537037</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3934,7 +4435,7 @@
         <v>43007.074641203704</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -3948,7 +4449,7 @@
         <v>43006.889039351852</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -3962,7 +4463,7 @@
         <v>43006.812754629631</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3976,7 +4477,7 @@
         <v>43005.896087962959</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -3990,7 +4491,7 @@
         <v>43033.536550925928</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -4004,7 +4505,7 @@
         <v>43031.670844907407</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -4018,7 +4519,7 @@
         <v>43028.71166666667</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -4032,7 +4533,7 @@
         <v>43028.542222222219</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4046,7 +4547,7 @@
         <v>43026.643680555557</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4060,7 +4561,7 @@
         <v>43025.75203703704</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -4074,7 +4575,7 @@
         <v>43025.595682870371</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4088,7 +4589,7 @@
         <v>43025.542557870373</v>
       </c>
       <c r="C32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -4102,7 +4603,7 @@
         <v>43024.908645833333</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -4116,7 +4617,7 @@
         <v>43024.608773148146</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4130,7 +4631,7 @@
         <v>43021.715509259258</v>
       </c>
       <c r="C35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4144,7 +4645,7 @@
         <v>43021.634675925925</v>
       </c>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4158,7 +4659,7 @@
         <v>43020.791076388887</v>
       </c>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -4172,7 +4673,7 @@
         <v>43020.747199074074</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -4186,7 +4687,7 @@
         <v>43017.914537037039</v>
       </c>
       <c r="C39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4200,7 +4701,7 @@
         <v>43017.509513888886</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4214,7 +4715,7 @@
         <v>43014.010428240741</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -4228,7 +4729,7 @@
         <v>43013.633275462962</v>
       </c>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -4242,7 +4743,7 @@
         <v>43012.918043981481</v>
       </c>
       <c r="C43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -4256,7 +4757,7 @@
         <v>43012.883692129632</v>
       </c>
       <c r="C44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -4270,7 +4771,7 @@
         <v>43012.521157407406</v>
       </c>
       <c r="C45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4284,7 +4785,7 @@
         <v>43010.812199074076</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -4298,7 +4799,7 @@
         <v>43026.63009259259</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -4312,7 +4813,7 @@
         <v>43026.267962962964</v>
       </c>
       <c r="C48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -4326,7 +4827,7 @@
         <v>43030.916666666664</v>
       </c>
       <c r="C49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -4340,7 +4841,7 @@
         <v>43025.88890046296</v>
       </c>
       <c r="C50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -4354,7 +4855,7 @@
         <v>43016.069444444445</v>
       </c>
       <c r="C51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -4368,7 +4869,7 @@
         <v>43015.25</v>
       </c>
       <c r="C52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -4382,7 +4883,7 @@
         <v>43014.489594907405</v>
       </c>
       <c r="C53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -4418,7 +4919,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4457,7 +4958,7 @@
         <v>43033.170868055553</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4471,7 +4972,7 @@
         <v>43033.097083333334</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4485,7 +4986,7 @@
         <v>43033.004259259258</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4499,7 +5000,7 @@
         <v>43032.935439814813</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4513,7 +5014,7 @@
         <v>43031.853831018518</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4527,7 +5028,7 @@
         <v>43028.747523148151</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4541,7 +5042,7 @@
         <v>43028.689166666663</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -4555,7 +5056,7 @@
         <v>42988.038437499999</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -4569,7 +5070,7 @@
         <v>43032.819328703707</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4583,7 +5084,7 @@
         <v>43032.640439814815</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4597,7 +5098,7 @@
         <v>43031.834756944445</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4611,7 +5112,7 @@
         <v>43031.639340277776</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4625,7 +5126,7 @@
         <v>43028.834062499998</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -4639,7 +5140,7 @@
         <v>43028.626307870371</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -4653,7 +5154,7 @@
         <v>43028.594259259262</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4667,7 +5168,7 @@
         <v>43028.593541666669</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4681,7 +5182,7 @@
         <v>43028.592499999999</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4695,7 +5196,7 @@
         <v>43028.589583333334</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4709,7 +5210,7 @@
         <v>43028.55908564815</v>
       </c>
       <c r="C22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4723,7 +5224,7 @@
         <v>43028.555300925924</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4737,7 +5238,7 @@
         <v>43026.900185185186</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -4751,7 +5252,7 @@
         <v>43026.849583333336</v>
       </c>
       <c r="C25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -4779,7 +5280,7 @@
         <v>43025.822488425925</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -4793,7 +5294,7 @@
         <v>43025.537141203706</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4807,7 +5308,7 @@
         <v>43024.962453703702</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4821,7 +5322,7 @@
         <v>43019.610983796294</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -4835,7 +5336,7 @@
         <v>43019.56622685185</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4849,7 +5350,7 @@
         <v>43018.762465277781</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -4863,7 +5364,7 @@
         <v>43017.865925925929</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -4877,7 +5378,7 @@
         <v>43014.858969907407</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4891,7 +5392,7 @@
         <v>43014.145983796298</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -4905,7 +5406,7 @@
         <v>43010.888518518521</v>
       </c>
       <c r="C36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -4919,7 +5420,7 @@
         <v>43010.843472222223</v>
       </c>
       <c r="C37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -4933,7 +5434,7 @@
         <v>43029.166678240741</v>
       </c>
       <c r="C38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4947,7 +5448,7 @@
         <v>43028.541724537034</v>
       </c>
       <c r="C39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4961,7 +5462,7 @@
         <v>43028.243067129632</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4975,7 +5476,7 @@
         <v>43028.229178240741</v>
       </c>
       <c r="C41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -4989,7 +5490,7 @@
         <v>43027.721064814818</v>
       </c>
       <c r="C42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -5003,7 +5504,7 @@
         <v>43021.180555555555</v>
       </c>
       <c r="C43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5017,7 +5518,7 @@
         <v>43014.877164351848</v>
       </c>
       <c r="C44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -5053,7 +5554,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5064,10 +5565,10 @@
         <v>43015.619618055556</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,7 +5579,7 @@
         <v>42706.028969907406</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -5106,7 +5607,7 @@
         <v>42991.866608796299</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -5120,7 +5621,7 @@
         <v>42991.75677083333</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5134,7 +5635,7 @@
         <v>43026.941631944443</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -5148,7 +5649,7 @@
         <v>43026.8358912037</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5162,7 +5663,7 @@
         <v>43026.77140046296</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -5176,7 +5677,7 @@
         <v>43026.667303240742</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -5190,7 +5691,7 @@
         <v>43026.598969907405</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -5204,7 +5705,7 @@
         <v>43026.595243055555</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -5218,7 +5719,7 @@
         <v>43026.566041666665</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -5232,7 +5733,7 @@
         <v>43025.916168981479</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -5246,7 +5747,7 @@
         <v>43025.89335648148</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -5260,7 +5761,7 @@
         <v>43025.841585648152</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -5274,7 +5775,7 @@
         <v>43025.812060185184</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -5288,10 +5789,10 @@
         <v>43025.555636574078</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5302,7 +5803,7 @@
         <v>43024.425625000003</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -5316,7 +5817,7 @@
         <v>43012.795347222222</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -5330,7 +5831,7 @@
         <v>43008.808900462966</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -5344,7 +5845,7 @@
         <v>43033.764004629629</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -5358,10 +5859,10 @@
         <v>43019.441388888888</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5372,7 +5873,7 @@
         <v>43031.250023148146</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -5386,7 +5887,7 @@
         <v>43026.953287037039</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -5400,7 +5901,7 @@
         <v>43026.846782407411</v>
       </c>
       <c r="C26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -5414,7 +5915,7 @@
         <v>43026.843564814815</v>
       </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -5428,7 +5929,7 @@
         <v>43026.690625000003</v>
       </c>
       <c r="C28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -5442,7 +5943,7 @@
         <v>43026.624525462961</v>
       </c>
       <c r="C29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -5456,7 +5957,7 @@
         <v>43026.588888888888</v>
       </c>
       <c r="C30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -5470,7 +5971,7 @@
         <v>43025.868055555555</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -5484,10 +5985,10 @@
         <v>43025.538194444445</v>
       </c>
       <c r="C32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5498,10 +5999,10 @@
         <v>43019.685416666667</v>
       </c>
       <c r="C33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5534,7 +6035,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5545,7 +6046,7 @@
         <v>42746.456574074073</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -5559,7 +6060,7 @@
         <v>43011.99013888889</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -5573,7 +6074,7 @@
         <v>43011.980081018519</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -5587,7 +6088,7 @@
         <v>42991.1487037037</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -5601,7 +6102,7 @@
         <v>43025.822488425925</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5615,7 +6116,7 @@
         <v>43020.571817129632</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -5629,7 +6130,7 @@
         <v>43017.552187499998</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -5643,7 +6144,7 @@
         <v>43014.545740740738</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -5657,7 +6158,7 @@
         <v>43012.187557870369</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -5671,7 +6172,7 @@
         <v>43012.135555555556</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -5685,7 +6186,7 @@
         <v>43011.945347222223</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -5699,7 +6200,7 @@
         <v>43011.933217592596</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -5713,7 +6214,7 @@
         <v>43011.907893518517</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -5727,7 +6228,7 @@
         <v>43025.822488425925</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -5741,7 +6242,7 @@
         <v>43020.571817129632</v>
       </c>
       <c r="C16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -5755,7 +6256,7 @@
         <v>43017.552187499998</v>
       </c>
       <c r="C17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -5769,7 +6270,7 @@
         <v>43014.545740740738</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -5783,7 +6284,7 @@
         <v>43012.187557870369</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -5797,7 +6298,7 @@
         <v>43012.135555555556</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -5811,7 +6312,7 @@
         <v>43011.945347222223</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -5825,7 +6326,7 @@
         <v>43011.933217592596</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -5839,7 +6340,7 @@
         <v>43011.907893518517</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -5853,7 +6354,7 @@
         <v>43033.383877314816</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -5867,7 +6368,7 @@
         <v>43033.126331018517</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -5881,7 +6382,7 @@
         <v>43021.585266203707</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -5895,7 +6396,7 @@
         <v>43020.873206018521</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -5909,7 +6410,7 @@
         <v>43020.382476851853</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -5923,7 +6424,7 @@
         <v>43018.862210648149</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -5937,7 +6438,7 @@
         <v>43012.229895833334</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -5951,7 +6452,7 @@
         <v>43022.097233796296</v>
       </c>
       <c r="C31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -5965,7 +6466,7 @@
         <v>43021.511817129627</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -6001,7 +6502,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,7 +6513,7 @@
         <v>42639.762141203704</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,7 +6524,7 @@
         <v>43025.543009259258</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6034,7 +6535,7 @@
         <v>43020.948333333334</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,7 +6546,7 @@
         <v>43018.862060185187</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6056,7 +6557,7 @@
         <v>43018.693773148145</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6067,7 +6568,7 @@
         <v>43018.649305555555</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,7 +6579,7 @@
         <v>43018.612407407411</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,7 +6590,7 @@
         <v>43018.538194444445</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/twitter/Tweet-Scale.xlsx
+++ b/twitter/Tweet-Scale.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashwini\Documents\GitHub\GLCap\twitter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="718"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Apple" sheetId="4" r:id="rId2"/>
+    <sheet name="APPL" sheetId="4" r:id="rId2"/>
     <sheet name="MSFT" sheetId="14" r:id="rId3"/>
     <sheet name="GE" sheetId="8" r:id="rId4"/>
     <sheet name="IBM" sheetId="9" r:id="rId5"/>
     <sheet name="DIS" sheetId="7" r:id="rId6"/>
     <sheet name="PG" sheetId="15" r:id="rId7"/>
-    <sheet name="AmericanExpress" sheetId="5" r:id="rId8"/>
+    <sheet name="AXP" sheetId="5" r:id="rId8"/>
     <sheet name="BA" sheetId="2" r:id="rId9"/>
     <sheet name="DD" sheetId="3" r:id="rId10"/>
     <sheet name="JNJ" sheetId="10" r:id="rId11"/>
@@ -1132,8 +1127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,7 +1238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1275,27 +1270,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1327,24 +1304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1520,12 +1479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -1534,7 +1493,7 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>345</v>
       </c>
@@ -1550,7 +1509,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1526,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1543,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1560,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1618,7 +1577,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1591,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1605,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +1616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1627,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +1638,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1690,7 +1649,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1660,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1730,81 +1689,81 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="155.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1818,7 +1777,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>9.1884377091265306E+17</v>
       </c>
@@ -1832,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>9.2116125554047706E+17</v>
       </c>
@@ -1846,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>9.18118E+17</v>
       </c>
@@ -1860,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>9.21508E+17</v>
       </c>
@@ -1874,7 +1833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>9.18521E+17</v>
       </c>
@@ -1888,7 +1847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>9.22563E+17</v>
       </c>
@@ -1902,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>9.22674E+17</v>
       </c>
@@ -1916,7 +1875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>9.2318E+17</v>
       </c>
@@ -1930,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9.1905516334792205E+17</v>
       </c>
@@ -1944,7 +1903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>9.22652E+17</v>
       </c>
@@ -1958,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>9.22527E+17</v>
       </c>
@@ -1972,7 +1931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>9.16358E+17</v>
       </c>
@@ -1986,7 +1945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>9.1340321120096998E+17</v>
       </c>
@@ -2000,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>9.21549102852304E+17</v>
       </c>
@@ -2014,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>9.2314E+17</v>
       </c>
@@ -2028,7 +1987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9.0743059124680704E+17</v>
       </c>
@@ -2042,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>9.0732113722650202E+17</v>
       </c>
@@ -2056,7 +2015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>9.0757866111261005E+17</v>
       </c>
@@ -2070,7 +2029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>9.21357E+17</v>
       </c>
@@ -2084,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>9.1844E+17</v>
       </c>
@@ -2098,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>9.164E+17</v>
       </c>
@@ -2112,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>9.0773334052608397E+17</v>
       </c>
@@ -2126,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>9.19938E+17</v>
       </c>
@@ -2140,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>9.20485E+17</v>
       </c>
@@ -2154,7 +2113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>9.0770967817976602E+17</v>
       </c>
@@ -2168,7 +2127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>9.1092688122177498E+17</v>
       </c>
@@ -2182,7 +2141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>9.21384E+17</v>
       </c>
@@ -2196,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>9.0805797692949197E+17</v>
       </c>
@@ -2210,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>9.1983E+17</v>
       </c>
@@ -2224,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>9.21025E+17</v>
       </c>
@@ -2238,7 +2197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>9.17774E+17</v>
       </c>
@@ -2252,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>9.23173E+17</v>
       </c>
@@ -2266,7 +2225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>9.16936611203616E+17</v>
       </c>
@@ -2280,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>9.1658554707381005E+17</v>
       </c>
@@ -2294,7 +2253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>9.1490139207837594E+17</v>
       </c>
@@ -2308,7 +2267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>9.1197247770152102E+17</v>
       </c>
@@ -2322,7 +2281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>9.1065502312154701E+17</v>
       </c>
@@ -2336,7 +2295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>9.1052539701972096E+17</v>
       </c>
@@ -2350,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>9.0808816136820301E+17</v>
       </c>
@@ -2364,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>9.0724137529639296E+17</v>
       </c>
@@ -2378,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>9.1139080717700698E+17</v>
       </c>
@@ -2392,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>9.1127131301212506E+17</v>
       </c>
@@ -2406,7 +2365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>9.0776454508244902E+17</v>
       </c>
@@ -2420,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>9.0793329849150605E+17</v>
       </c>
@@ -2434,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>9.0847773646066803E+17</v>
       </c>
@@ -2448,7 +2407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>9.0885396392309901E+17</v>
       </c>
@@ -2462,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>9.0865919802780403E+17</v>
       </c>
@@ -2476,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>9.0811919501084198E+17</v>
       </c>
@@ -2490,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>9.16191E+17</v>
       </c>
@@ -2504,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>9.19912E+17</v>
       </c>
@@ -2518,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>9.2277587972955302E+17</v>
       </c>
@@ -2532,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>9.0828899219350694E+17</v>
       </c>
@@ -2546,7 +2505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>9.0806930056457805E+17</v>
       </c>
@@ -2560,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>9.1374230851998502E+17</v>
       </c>
@@ -2574,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>7.7325810897410406E+17</v>
       </c>
@@ -2588,7 +2547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>7.7058566052056205E+17</v>
       </c>
@@ -2602,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>7.9104125592071706E+17</v>
       </c>
@@ -2616,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>8.1746206914661901E+17</v>
       </c>
@@ -2630,7 +2589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>8.8046917010164506E+17</v>
       </c>
@@ -2644,7 +2603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
         <v>9.20719E+17</v>
       </c>
@@ -2658,7 +2617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
         <v>9.21232E+17</v>
       </c>
@@ -2672,7 +2631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>9.22724E+17</v>
       </c>
@@ -2686,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>9.1094055374706598E+17</v>
       </c>
@@ -2700,7 +2659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>9.1217767179430195E+17</v>
       </c>
@@ -2714,7 +2673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>9.1070213949586598E+17</v>
       </c>
@@ -2728,7 +2687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>9.1079193178508902E+17</v>
       </c>
@@ -2742,7 +2701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>9.1195648973196403E+17</v>
       </c>
@@ -2756,7 +2715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>9.1058386898988595E+17</v>
       </c>
@@ -2770,7 +2729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>9.1560573212858701E+17</v>
       </c>
@@ -2784,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
         <v>9.1446E+17</v>
       </c>
@@ -2798,7 +2757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>7.7432162892670502E+17</v>
       </c>
@@ -2812,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>9.0764611796537702E+17</v>
       </c>
@@ -2826,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>9.0805597292458803E+17</v>
       </c>
@@ -2840,7 +2799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
         <v>9.21463E+17</v>
       </c>
@@ -2854,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
         <v>9.15192E+17</v>
       </c>
@@ -2868,7 +2827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>9.0769161850083302E+17</v>
       </c>
@@ -2882,7 +2841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>9.1852794371819904E+17</v>
       </c>
@@ -2896,7 +2855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>9.1872549221942797E+17</v>
       </c>
@@ -2910,7 +2869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>7.7180023281628698E+17</v>
       </c>
@@ -2924,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
         <v>9.2105E+17</v>
       </c>
@@ -2938,7 +2897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>9.1314726102197005E+17</v>
       </c>
@@ -2952,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
         <v>9.18215E+17</v>
       </c>
@@ -2966,7 +2925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
         <v>9.22884E+17</v>
       </c>
@@ -2980,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
         <v>9.22991E+17</v>
       </c>
@@ -2994,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="2">
         <v>9.20637E+17</v>
       </c>
@@ -3008,7 +2967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="2">
         <v>9.22836E+17</v>
       </c>
@@ -3022,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="2">
         <v>9.23223E+17</v>
       </c>
@@ -3036,7 +2995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
         <v>9.20049E+17</v>
       </c>
@@ -3050,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="2">
         <v>9.21011E+17</v>
       </c>
@@ -3064,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>9.1177848769811994E+17</v>
       </c>
@@ -3078,7 +3037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>9.1089208227279603E+17</v>
       </c>
@@ -3092,7 +3051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>9.1193702037666202E+17</v>
       </c>
@@ -3106,7 +3065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>9.1105854729892595E+17</v>
       </c>
@@ -3120,7 +3079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="2">
         <v>9.20454E+17</v>
       </c>
@@ -3134,7 +3093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="2">
         <v>9.23227E+17</v>
       </c>
@@ -3148,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="2">
         <v>9.16767E+17</v>
       </c>
@@ -3162,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>9.1344258372406797E+17</v>
       </c>
@@ -3176,7 +3135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>9.1354199101477197E+17</v>
       </c>
@@ -3190,7 +3149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>9.0869374353602906E+17</v>
       </c>
@@ -3204,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="2">
         <v>9.15264E+17</v>
       </c>
@@ -3218,7 +3177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="2">
         <v>9.21172E+17</v>
       </c>
@@ -3232,7 +3191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="2">
         <v>9.22809E+17</v>
       </c>
@@ -3246,7 +3205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>9.1531924682097395E+17</v>
       </c>
@@ -3260,7 +3219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="2">
         <v>9.21196E+17</v>
       </c>
@@ -3274,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="2">
         <v>9.21406E+17</v>
       </c>
@@ -3288,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="2">
         <v>9.17363E+17</v>
       </c>
@@ -3302,7 +3261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>9.1887598804137101E+17</v>
       </c>
@@ -3316,7 +3275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>9.1633626111956096E+17</v>
       </c>
@@ -3330,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>9.1662692947791398E+17</v>
       </c>
@@ -3344,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>9.1671643566942195E+17</v>
       </c>
@@ -3358,7 +3317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>9.1699687175479706E+17</v>
       </c>
@@ -3372,7 +3331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>9.1695901624027494E+17</v>
       </c>
@@ -3386,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>9.1705790789159706E+17</v>
       </c>
@@ -3400,7 +3359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>9.0768310236922202E+17</v>
       </c>
@@ -3414,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="2">
         <v>9.19901E+17</v>
       </c>
@@ -3428,7 +3387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>9.0769886311657395E+17</v>
       </c>
@@ -3442,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="2">
         <v>9.14836E+17</v>
       </c>
@@ -3456,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="2">
         <v>9.22789E+17</v>
       </c>
@@ -3470,7 +3429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>9.2321171830148698E+17</v>
       </c>
@@ -3484,7 +3443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>9.1638765298278797E+17</v>
       </c>
@@ -3498,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>9.1664204022559501E+17</v>
       </c>
@@ -3512,7 +3471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>9.1238862024952998E+17</v>
       </c>
@@ -3526,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="2">
         <v>9.23328E+17</v>
       </c>
@@ -3540,7 +3499,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>9.1887904553378995E+17</v>
       </c>
@@ -3554,7 +3513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="2">
         <v>9.20788E+17</v>
       </c>
@@ -3568,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>9.1591625084442202E+17</v>
       </c>
@@ -3582,7 +3541,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>9.1633870724184806E+17</v>
       </c>
@@ -3596,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>9.1235414553287795E+17</v>
       </c>
@@ -3610,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="2">
         <v>9.22433E+17</v>
       </c>
@@ -3624,7 +3583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="2">
         <v>9.20606E+17</v>
       </c>
@@ -3638,7 +3597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="2">
         <v>9.21057E+17</v>
       </c>
@@ -3652,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>9.1704692969073395E+17</v>
       </c>
@@ -3666,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>9.1431995385517594E+17</v>
       </c>
@@ -3680,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>9.1365553003553498E+17</v>
       </c>
@@ -3694,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>9.2257241917215501E+17</v>
       </c>
@@ -3708,7 +3667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="2">
         <v>9.15322E+17</v>
       </c>
@@ -3722,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="2">
         <v>9.15426E+17</v>
       </c>
@@ -3736,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="2">
         <v>9.17388E+17</v>
       </c>
@@ -3750,7 +3709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>9.0674240629241395E+17</v>
       </c>
@@ -3764,7 +3723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>9.2324802730482803E+17</v>
       </c>
@@ -3778,7 +3737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>9.1888241074129306E+17</v>
       </c>
@@ -3792,7 +3751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>9.0768009229737498E+17</v>
       </c>
@@ -3806,7 +3765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="2">
         <v>9.22813E+17</v>
       </c>
@@ -3820,7 +3779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="2">
         <v>9.1994E+17</v>
       </c>
@@ -3834,7 +3793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="2">
         <v>9.2047E+17</v>
       </c>
@@ -3848,7 +3807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="2">
         <v>9.18888E+17</v>
       </c>
@@ -3862,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="2">
         <v>9.18341E+17</v>
       </c>
@@ -3876,7 +3835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>7.8810527310572301E+17</v>
       </c>
@@ -3890,7 +3849,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>7.7355516738797901E+17</v>
       </c>
@@ -3904,7 +3863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>7.7181655708103795E+17</v>
       </c>
@@ -3918,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="2">
         <v>9.154E+17</v>
       </c>
@@ -3932,7 +3891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="2">
         <v>9.15325E+17</v>
       </c>
@@ -3946,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>9.0802781881405402E+17</v>
       </c>
@@ -3960,7 +3919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="2">
         <v>9.2066E+17</v>
       </c>
@@ -3974,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="2">
         <v>9.17691E+17</v>
       </c>
@@ -3988,7 +3947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="2">
         <v>9.15518E+17</v>
       </c>
@@ -4002,7 +3961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>9.0735212327632794E+17</v>
       </c>
@@ -4016,7 +3975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>9.0759374363244096E+17</v>
       </c>
@@ -4030,7 +3989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="2">
         <v>9.19947E+17</v>
       </c>
@@ -4044,7 +4003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>9.1854085810172698E+17</v>
       </c>
@@ -4058,7 +4017,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>9.0737140040673203E+17</v>
       </c>
@@ -4072,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="2">
         <v>9.16262E+17</v>
       </c>
@@ -4086,7 +4045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>9.0804292084171494E+17</v>
       </c>
@@ -4100,7 +4059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>9.2106902107568499E+17</v>
       </c>
@@ -4114,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="2">
         <v>9.21265E+17</v>
       </c>
@@ -4134,20 +4093,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="145.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4161,7 +4120,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>9.1383876113759002E+17</v>
       </c>
@@ -4175,7 +4134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>9.1316173575370304E+17</v>
       </c>
@@ -4189,7 +4148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>9.1315091313672602E+17</v>
       </c>
@@ -4203,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>9.1314798032832102E+17</v>
       </c>
@@ -4217,7 +4176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>9.1313292453007706E+17</v>
       </c>
@@ -4231,7 +4190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>9.1239881662765798E+17</v>
       </c>
@@ -4245,7 +4204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>8.0625436739320602E+17</v>
       </c>
@@ -4259,7 +4218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7.8125664955407501E+17</v>
       </c>
@@ -4273,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>7.8047136793841997E+17</v>
       </c>
@@ -4287,7 +4246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9.2335357475051494E+17</v>
       </c>
@@ -4301,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9.2323701176650099E+17</v>
       </c>
@@ -4315,7 +4274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>9.2322190618604698E+17</v>
       </c>
@@ -4329,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>9.2321422004853094E+17</v>
       </c>
@@ -4343,7 +4302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>9.2320664997573005E+17</v>
       </c>
@@ -4357,7 +4316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>9.2319916590298701E+17</v>
       </c>
@@ -4371,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9.2319499604764595E+17</v>
       </c>
@@ -4385,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>9.2002652277332698E+17</v>
       </c>
@@ -4399,7 +4358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>9.1788398825707494E+17</v>
       </c>
@@ -4413,7 +4372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>9.1360731264372301E+17</v>
       </c>
@@ -4427,7 +4386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>9.135809616688E+17</v>
       </c>
@@ -4441,7 +4400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>9.1351370405817101E+17</v>
       </c>
@@ -4455,7 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>9.1348605942990797E+17</v>
       </c>
@@ -4469,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>9.1315386847696E+17</v>
       </c>
@@ -4483,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>9.2317043730306995E+17</v>
       </c>
@@ -4497,7 +4456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>9.22494329746272E+17</v>
       </c>
@@ -4511,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>9.2142195630142605E+17</v>
       </c>
@@ -4525,7 +4484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>9.2136055278137702E+17</v>
       </c>
@@ -4539,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>9.2067254491040102E+17</v>
       </c>
@@ -4553,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>9.20349424664096E+17</v>
       </c>
@@ -4567,7 +4526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>9.2029276177713101E+17</v>
       </c>
@@ -4581,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>9.2027351078584704E+17</v>
       </c>
@@ -4595,7 +4554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>9.2004378810985997E+17</v>
       </c>
@@ -4609,7 +4568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>9.1993511663756006E+17</v>
       </c>
@@ -4623,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>9.1888663322269197E+17</v>
       </c>
@@ -4637,7 +4596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>9.1885734247680397E+17</v>
       </c>
@@ -4651,7 +4610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>9.1855163271933504E+17</v>
       </c>
@@ -4665,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>9.1853573300622502E+17</v>
       </c>
@@ -4679,7 +4638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>9.1750920991005402E+17</v>
       </c>
@@ -4693,7 +4652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>9.1736243122732198E+17</v>
       </c>
@@ -4707,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>9.1609440815988301E+17</v>
       </c>
@@ -4721,7 +4680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>9.1595772963787098E+17</v>
       </c>
@@ -4735,7 +4694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>9.1569854052504704E+17</v>
       </c>
@@ -4749,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>9.1568609042982502E+17</v>
       </c>
@@ -4763,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>9.1555471293778701E+17</v>
       </c>
@@ -4777,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>9.1493540570276198E+17</v>
       </c>
@@ -4791,7 +4750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>9.2066761935466394E+17</v>
       </c>
@@ -4805,7 +4764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>9.20536389283872E+17</v>
       </c>
@@ -4819,7 +4778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>9.2222102224949606E+17</v>
       </c>
@@ -4833,7 +4792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>9.2039902145750195E+17</v>
       </c>
@@ -4847,7 +4806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>9.1684057062200499E+17</v>
       </c>
@@ -4861,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>9.1654361264450304E+17</v>
       </c>
@@ -4875,7 +4834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>9.1626805103686003E+17</v>
       </c>
@@ -4895,20 +4854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="114.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4922,7 +4881,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>9.2039022999057997E+17</v>
       </c>
@@ -4936,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>9.1490155874721306E+17</v>
       </c>
@@ -4950,7 +4909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>9.2303791914476301E+17</v>
       </c>
@@ -4964,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>9.2301118117405402E+17</v>
       </c>
@@ -4978,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>9.2297753959699597E+17</v>
       </c>
@@ -4992,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>9.2295260339005005E+17</v>
       </c>
@@ -5006,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9.22560639272304E+17</v>
       </c>
@@ -5020,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9.2143494994483994E+17</v>
       </c>
@@ -5034,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9.2141380470494003E+17</v>
       </c>
@@ -5048,7 +5007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9.0668247321136294E+17</v>
       </c>
@@ -5062,7 +5021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9.2291052230715302E+17</v>
       </c>
@@ -5076,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>9.2284569854616704E+17</v>
       </c>
@@ -5090,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>9.2255372822969498E+17</v>
       </c>
@@ -5104,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>9.2248290900459904E+17</v>
       </c>
@@ -5118,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>9.21466313503072E+17</v>
       </c>
@@ -5132,7 +5091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9.2139102418597798E+17</v>
       </c>
@@ -5146,7 +5105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>9.2137940886636902E+17</v>
       </c>
@@ -5160,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>9.2137915101732403E+17</v>
       </c>
@@ -5174,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>9.2137877433952205E+17</v>
       </c>
@@ -5188,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>9.21377715109888E+17</v>
       </c>
@@ -5202,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>9.2136666326149901E+17</v>
       </c>
@@ -5216,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>9.2136529045746803E+17</v>
       </c>
@@ -5230,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>9.2076549994810099E+17</v>
       </c>
@@ -5244,7 +5203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>9.2074716238800397E+17</v>
       </c>
@@ -5258,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>9.2063688352430797E+17</v>
       </c>
@@ -5272,7 +5231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>9.2037495574067994E+17</v>
       </c>
@@ -5286,7 +5245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>9.2027154775925094E+17</v>
       </c>
@@ -5300,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>9.2006328617497805E+17</v>
       </c>
@@ -5314,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>9.1812398236852595E+17</v>
       </c>
@@ -5328,7 +5287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>9.1810775905229594E+17</v>
       </c>
@@ -5342,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>9.1781648884897306E+17</v>
       </c>
@@ -5356,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>9.1749159335511194E+17</v>
       </c>
@@ -5370,7 +5329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>9.1640190773175501E+17</v>
       </c>
@@ -5384,7 +5343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>9.1614353276684198E+17</v>
       </c>
@@ -5398,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>9.1496306526699098E+17</v>
       </c>
@@ -5412,7 +5371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>9.1494674253739597E+17</v>
       </c>
@@ -5426,7 +5385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>9.2158684786354099E+17</v>
       </c>
@@ -5440,7 +5399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>9.2136037193545306E+17</v>
       </c>
@@ -5454,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>9.2125214160339302E+17</v>
       </c>
@@ -5468,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>9.21247107557728E+17</v>
       </c>
@@ -5482,7 +5441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>9.2106297600579098E+17</v>
       </c>
@@ -5496,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>9.1869277450924403E+17</v>
       </c>
@@ -5510,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>9.1640850369416806E+17</v>
       </c>
@@ -5530,20 +5489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -5557,7 +5516,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>9.1667755708024806E+17</v>
       </c>
@@ -5571,7 +5530,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>8.0448566546342195E+17</v>
       </c>
@@ -5585,7 +5544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>7.9457383936354304E+17</v>
       </c>
@@ -5599,7 +5558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>9.0806975702636506E+17</v>
       </c>
@@ -5613,7 +5572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>9.0802995246478899E+17</v>
       </c>
@@ -5627,7 +5586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>9.2078051820303501E+17</v>
       </c>
@@ -5641,7 +5600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9.2074219858025997E+17</v>
       </c>
@@ -5655,7 +5614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9.2071882663497306E+17</v>
       </c>
@@ -5669,7 +5628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9.2068110357226202E+17</v>
       </c>
@@ -5683,7 +5642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9.2065634303125504E+17</v>
       </c>
@@ -5697,7 +5656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9.2065499024663706E+17</v>
       </c>
@@ -5711,7 +5670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>9.2064440916689306E+17</v>
       </c>
@@ -5725,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>9.2040890424011494E+17</v>
       </c>
@@ -5739,7 +5698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>9.20400634762944E+17</v>
       </c>
@@ -5753,7 +5712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>9.2038187475267904E+17</v>
       </c>
@@ -5767,7 +5726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9.2037117444139802E+17</v>
       </c>
@@ -5781,7 +5740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>9.2027824874290304E+17</v>
       </c>
@@ -5795,7 +5754,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>9.1986874674699802E+17</v>
       </c>
@@ -5809,7 +5768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>9.1565407823921101E+17</v>
       </c>
@@ -5823,7 +5782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>9.1420943557638899E+17</v>
       </c>
@@ -5837,7 +5796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>9.2325286514101798E+17</v>
       </c>
@@ -5851,7 +5810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>9.1806252211626304E+17</v>
       </c>
@@ -5865,7 +5824,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>9.2234182592237094E+17</v>
       </c>
@@ -5879,7 +5838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>9.2078474275613005E+17</v>
       </c>
@@ -5893,7 +5852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>9.2074614747141696E+17</v>
       </c>
@@ -5907,7 +5866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>9.2074498177777997E+17</v>
       </c>
@@ -5921,7 +5880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>9.2068955749402598E+17</v>
       </c>
@@ -5935,7 +5894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>9.2066560094656499E+17</v>
       </c>
@@ -5949,7 +5908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>9.2065268982586496E+17</v>
       </c>
@@ -5963,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>9.2039146745287398E+17</v>
       </c>
@@ -5977,7 +5936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>9.2027193114363405E+17</v>
       </c>
@@ -5991,7 +5950,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>9.1815095441477197E+17</v>
       </c>
@@ -6011,20 +5970,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -6038,7 +5997,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>8.1913613715950694E+17</v>
       </c>
@@ -6052,7 +6011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>9.1536227920968E+17</v>
       </c>
@@ -6066,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>9.1535863222041805E+17</v>
       </c>
@@ -6080,7 +6039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>9.0780959341745702E+17</v>
       </c>
@@ -6094,7 +6053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>9.2037495574067994E+17</v>
       </c>
@@ -6108,7 +6067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>9.1847217279610394E+17</v>
       </c>
@@ -6122,7 +6081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9.1737789935487706E+17</v>
       </c>
@@ -6136,7 +6095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9.1628839982430195E+17</v>
       </c>
@@ -6150,7 +6109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9.1543382204031296E+17</v>
       </c>
@@ -6164,7 +6123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9.1541497461641203E+17</v>
       </c>
@@ -6178,7 +6137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9.1534604610820902E+17</v>
       </c>
@@ -6192,7 +6151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>9.1534165275933901E+17</v>
       </c>
@@ -6206,7 +6165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>9.1533247493015501E+17</v>
       </c>
@@ -6220,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>9.2037495574067994E+17</v>
       </c>
@@ -6234,7 +6193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>9.1847217279610394E+17</v>
       </c>
@@ -6248,7 +6207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9.1737789935487706E+17</v>
       </c>
@@ -6262,7 +6221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>9.1628839982430195E+17</v>
       </c>
@@ -6276,7 +6235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>9.1543382204031296E+17</v>
       </c>
@@ -6290,7 +6249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>9.1541497461641203E+17</v>
       </c>
@@ -6304,7 +6263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>9.1534604610820902E+17</v>
       </c>
@@ -6318,7 +6277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>9.1534165275933901E+17</v>
       </c>
@@ -6332,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>9.1533247493015501E+17</v>
       </c>
@@ -6346,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>9.2311511059542797E+17</v>
       </c>
@@ -6360,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>9.2302177913999706E+17</v>
       </c>
@@ -6374,7 +6333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>9.188394380416E+17</v>
       </c>
@@ -6388,7 +6347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>9.1858139518585997E+17</v>
       </c>
@@ -6402,7 +6361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>9.18403561553264E+17</v>
       </c>
@@ -6416,7 +6375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>9.1785263440878298E+17</v>
       </c>
@@ -6430,7 +6389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>9.1544916565576E+17</v>
       </c>
@@ -6444,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>9.1902496531118797E+17</v>
       </c>
@@ -6458,7 +6417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>9.1881281900454195E+17</v>
       </c>
@@ -6478,20 +6437,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -6505,7 +6464,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>7.8047136793841997E+17</v>
       </c>
@@ -6516,7 +6475,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>9.2027367615456794E+17</v>
       </c>
@@ -6527,7 +6486,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>9.18608621075824E+17</v>
       </c>
@@ -6538,7 +6497,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>9.1785257966474803E+17</v>
       </c>
@@ -6549,7 +6508,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>9.1779159352400602E+17</v>
       </c>
@@ -6560,7 +6519,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>9.1777548047598298E+17</v>
       </c>
@@ -6571,7 +6530,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9.1776210676583194E+17</v>
       </c>
@@ -6582,7 +6541,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9.17735213890912E+17</v>
       </c>
@@ -6599,2722 +6558,2722 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2">
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2">
       <c r="B288" s="1"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2">
       <c r="B289" s="1"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2">
       <c r="B290" s="1"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2">
       <c r="B291" s="1"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2">
       <c r="B292" s="1"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2">
       <c r="B293" s="1"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2">
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2">
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2">
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2">
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2">
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2">
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2">
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2">
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2">
       <c r="B304" s="1"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2">
       <c r="B305" s="1"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2">
       <c r="B306" s="1"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2">
       <c r="B307" s="1"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2">
       <c r="B308" s="1"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2">
       <c r="B309" s="1"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2">
       <c r="B310" s="1"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2">
       <c r="B311" s="1"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2">
       <c r="B312" s="1"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2">
       <c r="B313" s="1"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2">
       <c r="B314" s="1"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2">
       <c r="B315" s="1"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2">
       <c r="B316" s="1"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2">
       <c r="B317" s="1"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2">
       <c r="B318" s="1"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2">
       <c r="B319" s="1"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2">
       <c r="B320" s="1"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2">
       <c r="B321" s="1"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2">
       <c r="B322" s="1"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2">
       <c r="B323" s="1"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2">
       <c r="B324" s="1"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2">
       <c r="B325" s="1"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2">
       <c r="B326" s="1"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2">
       <c r="B327" s="1"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2">
       <c r="B328" s="1"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2">
       <c r="B329" s="1"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2">
       <c r="B333" s="1"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2">
       <c r="B334" s="1"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2">
       <c r="B335" s="1"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2">
       <c r="B336" s="1"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2">
       <c r="B337" s="1"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2">
       <c r="B338" s="1"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2">
       <c r="B339" s="1"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2">
       <c r="B340" s="1"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2">
       <c r="B341" s="1"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2">
       <c r="B342" s="1"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2">
       <c r="B343" s="1"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2">
       <c r="B344" s="1"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2">
       <c r="B345" s="1"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2">
       <c r="B352" s="1"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2">
       <c r="B353" s="1"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2">
       <c r="B354" s="1"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2">
       <c r="B355" s="1"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2">
       <c r="B356" s="1"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2">
       <c r="B357" s="1"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2">
       <c r="B358" s="1"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2">
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2">
       <c r="B361" s="1"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2">
       <c r="B362" s="1"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2">
       <c r="B363" s="1"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2">
       <c r="B364" s="1"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2">
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2">
       <c r="B366" s="1"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2">
       <c r="B368" s="1"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2">
       <c r="B369" s="1"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2">
       <c r="B370" s="1"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2">
       <c r="B384" s="1"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2">
       <c r="B385" s="1"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2">
       <c r="B386" s="1"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2">
       <c r="B387" s="1"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2">
       <c r="B388" s="1"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2">
       <c r="B389" s="1"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2">
       <c r="B390" s="1"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2">
       <c r="B391" s="1"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2">
       <c r="B392" s="1"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2">
       <c r="B393" s="1"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2">
       <c r="B394" s="1"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2">
       <c r="B395" s="1"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2">
       <c r="B396" s="1"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2">
       <c r="B397" s="1"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2">
       <c r="B398" s="1"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2">
       <c r="B399" s="1"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2">
       <c r="B400" s="1"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2">
       <c r="B401" s="1"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2">
       <c r="B402" s="1"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2">
       <c r="B403" s="1"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2">
       <c r="B404" s="1"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2">
       <c r="B405" s="1"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2">
       <c r="B406" s="1"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2">
       <c r="B407" s="1"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2">
       <c r="B408" s="1"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2">
       <c r="B409" s="1"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2">
       <c r="B410" s="1"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2">
       <c r="B411" s="1"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2">
       <c r="B412" s="1"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2">
       <c r="B413" s="1"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2">
       <c r="B414" s="1"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2">
       <c r="B415" s="1"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2">
       <c r="B416" s="1"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2">
       <c r="B417" s="1"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2">
       <c r="B418" s="1"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2">
       <c r="B419" s="1"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2">
       <c r="B420" s="1"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2">
       <c r="B421" s="1"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2">
       <c r="B422" s="1"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2">
       <c r="B423" s="1"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2">
       <c r="B424" s="1"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2">
       <c r="B425" s="1"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2">
       <c r="B426" s="1"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2">
       <c r="B427" s="1"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2">
       <c r="B428" s="1"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2">
       <c r="B429" s="1"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2">
       <c r="B430" s="1"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2">
       <c r="B431" s="1"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2">
       <c r="B432" s="1"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2">
       <c r="B433" s="1"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2">
       <c r="B434" s="1"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2">
       <c r="B435" s="1"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2">
       <c r="B436" s="1"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2">
       <c r="B437" s="1"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2">
       <c r="B438" s="1"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2">
       <c r="B439" s="1"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2">
       <c r="B440" s="1"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2">
       <c r="B441" s="1"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2">
       <c r="B442" s="1"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2">
       <c r="B443" s="1"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2">
       <c r="B444" s="1"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2">
       <c r="B445" s="1"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2">
       <c r="B446" s="1"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2">
       <c r="B447" s="1"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2">
       <c r="B448" s="1"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2">
       <c r="B449" s="1"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2">
       <c r="B450" s="1"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2">
       <c r="B451" s="1"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2">
       <c r="B452" s="1"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2">
       <c r="B453" s="1"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2">
       <c r="B454" s="1"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2">
       <c r="B455" s="1"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2">
       <c r="B456" s="1"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2">
       <c r="B457" s="1"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2">
       <c r="B458" s="1"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2">
       <c r="B459" s="1"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2">
       <c r="B460" s="1"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2">
       <c r="B461" s="1"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2">
       <c r="B462" s="1"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2">
       <c r="B463" s="1"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2">
       <c r="B464" s="1"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2">
       <c r="B465" s="1"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2">
       <c r="B466" s="1"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2">
       <c r="B467" s="1"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2">
       <c r="B468" s="1"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2">
       <c r="B469" s="1"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2">
       <c r="B470" s="1"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2">
       <c r="B471" s="1"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2">
       <c r="B472" s="1"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2">
       <c r="B473" s="1"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2">
       <c r="B474" s="1"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2">
       <c r="B475" s="1"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2">
       <c r="B476" s="1"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2">
       <c r="B477" s="1"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2">
       <c r="B478" s="1"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2">
       <c r="B479" s="1"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2">
       <c r="B480" s="1"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2">
       <c r="B481" s="1"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2">
       <c r="B482" s="1"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2">
       <c r="B483" s="1"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2">
       <c r="B484" s="1"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2">
       <c r="B485" s="1"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2">
       <c r="B486" s="1"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2">
       <c r="B487" s="1"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2">
       <c r="B488" s="1"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2">
       <c r="B489" s="1"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2">
       <c r="B490" s="1"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2">
       <c r="B491" s="1"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2">
       <c r="B492" s="1"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2">
       <c r="B493" s="1"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2">
       <c r="B494" s="1"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2">
       <c r="B495" s="1"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2">
       <c r="B496" s="1"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2">
       <c r="B497" s="1"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2">
       <c r="B498" s="1"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2">
       <c r="B499" s="1"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2">
       <c r="B500" s="1"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2">
       <c r="B501" s="1"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2">
       <c r="B502" s="1"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2">
       <c r="B503" s="1"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2">
       <c r="B504" s="1"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2">
       <c r="B505" s="1"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2">
       <c r="B506" s="1"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2">
       <c r="B507" s="1"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2">
       <c r="B508" s="1"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2">
       <c r="B509" s="1"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2">
       <c r="B510" s="1"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2">
       <c r="B511" s="1"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2">
       <c r="B512" s="1"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2">
       <c r="B513" s="1"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2">
       <c r="B514" s="1"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2">
       <c r="B515" s="1"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2">
       <c r="B516" s="1"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2">
       <c r="B517" s="1"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2">
       <c r="B518" s="1"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2">
       <c r="B519" s="1"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2">
       <c r="B520" s="1"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2">
       <c r="B521" s="1"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2">
       <c r="B522" s="1"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2">
       <c r="B523" s="1"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2">
       <c r="B524" s="1"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2">
       <c r="B525" s="1"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2">
       <c r="B526" s="1"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2">
       <c r="B527" s="1"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2">
       <c r="B528" s="1"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2">
       <c r="B529" s="1"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2">
       <c r="B530" s="1"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2">
       <c r="B531" s="1"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2">
       <c r="B532" s="1"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2">
       <c r="B533" s="1"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2">
       <c r="B534" s="1"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2">
       <c r="B535" s="1"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2">
       <c r="B536" s="1"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2">
       <c r="B537" s="1"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2">
       <c r="B538" s="1"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2">
       <c r="B539" s="1"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2">
       <c r="B540" s="1"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2">
       <c r="B541" s="1"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2">
       <c r="B542" s="1"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2">
       <c r="B543" s="1"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2">
       <c r="B544" s="1"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2">
       <c r="B545" s="1"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2">
       <c r="B546" s="1"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2">
       <c r="B547" s="1"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2">
       <c r="B548" s="1"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2">
       <c r="B549" s="1"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2">
       <c r="B550" s="1"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2">
       <c r="B551" s="1"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2">
       <c r="B552" s="1"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2">
       <c r="B553" s="1"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2">
       <c r="B554" s="1"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2">
       <c r="B555" s="1"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2">
       <c r="B556" s="1"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2">
       <c r="B557" s="1"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2">
       <c r="B558" s="1"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2">
       <c r="B559" s="1"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2">
       <c r="B560" s="1"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2">
       <c r="B561" s="1"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2">
       <c r="B562" s="1"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2">
       <c r="B563" s="1"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2">
       <c r="B564" s="1"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2">
       <c r="B565" s="1"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2">
       <c r="B566" s="1"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2">
       <c r="B567" s="1"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2">
       <c r="B568" s="1"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2">
       <c r="B569" s="1"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2">
       <c r="B570" s="1"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2">
       <c r="B571" s="1"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2">
       <c r="B572" s="1"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2">
       <c r="B573" s="1"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2">
       <c r="B574" s="1"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2">
       <c r="B575" s="1"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2">
       <c r="B576" s="1"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2">
       <c r="B577" s="1"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2">
       <c r="B578" s="1"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2">
       <c r="B579" s="1"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2">
       <c r="B580" s="1"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2">
       <c r="B581" s="1"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2">
       <c r="B582" s="1"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2">
       <c r="B583" s="1"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2">
       <c r="B584" s="1"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2">
       <c r="B585" s="1"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2">
       <c r="B586" s="1"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2">
       <c r="B587" s="1"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2">
       <c r="B588" s="1"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2">
       <c r="B589" s="1"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2">
       <c r="B590" s="1"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2">
       <c r="B591" s="1"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2">
       <c r="B592" s="1"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2">
       <c r="B593" s="1"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2">
       <c r="B594" s="1"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2">
       <c r="B595" s="1"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2">
       <c r="B596" s="1"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2">
       <c r="B597" s="1"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2">
       <c r="B598" s="1"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2">
       <c r="B599" s="1"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2">
       <c r="B600" s="1"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2">
       <c r="B601" s="1"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2">
       <c r="B602" s="1"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2">
       <c r="B603" s="1"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2">
       <c r="B604" s="1"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2">
       <c r="B605" s="1"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2">
       <c r="B606" s="1"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2">
       <c r="B607" s="1"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2">
       <c r="B608" s="1"/>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2">
       <c r="B609" s="1"/>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2">
       <c r="B610" s="1"/>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2">
       <c r="B611" s="1"/>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2">
       <c r="B612" s="1"/>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2">
       <c r="B613" s="1"/>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2">
       <c r="B614" s="1"/>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2">
       <c r="B615" s="1"/>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2">
       <c r="B616" s="1"/>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2">
       <c r="B617" s="1"/>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2">
       <c r="B618" s="1"/>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2">
       <c r="B619" s="1"/>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2">
       <c r="B620" s="1"/>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2">
       <c r="B621" s="1"/>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2">
       <c r="B622" s="1"/>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2">
       <c r="B623" s="1"/>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2">
       <c r="B624" s="1"/>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2">
       <c r="B625" s="1"/>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2">
       <c r="B626" s="1"/>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2">
       <c r="B627" s="1"/>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2">
       <c r="B628" s="1"/>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2">
       <c r="B629" s="1"/>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2">
       <c r="B630" s="1"/>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2">
       <c r="B631" s="1"/>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2">
       <c r="B632" s="1"/>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2">
       <c r="B633" s="1"/>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2">
       <c r="B634" s="1"/>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2">
       <c r="B635" s="1"/>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2">
       <c r="B636" s="1"/>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2">
       <c r="B637" s="1"/>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2">
       <c r="B638" s="1"/>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2">
       <c r="B639" s="1"/>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2">
       <c r="B640" s="1"/>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2">
       <c r="B641" s="1"/>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2">
       <c r="B642" s="1"/>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2">
       <c r="B643" s="1"/>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2">
       <c r="B644" s="1"/>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2">
       <c r="B645" s="1"/>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2">
       <c r="B646" s="1"/>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2">
       <c r="B647" s="1"/>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2">
       <c r="B648" s="1"/>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2">
       <c r="B649" s="1"/>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2">
       <c r="B650" s="1"/>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2">
       <c r="B651" s="1"/>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2">
       <c r="B652" s="1"/>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2">
       <c r="B653" s="1"/>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2">
       <c r="B654" s="1"/>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2">
       <c r="B655" s="1"/>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2">
       <c r="B656" s="1"/>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2">
       <c r="B657" s="1"/>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2">
       <c r="B658" s="1"/>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2">
       <c r="B659" s="1"/>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2">
       <c r="B660" s="1"/>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2">
       <c r="B661" s="1"/>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2">
       <c r="B662" s="1"/>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2">
       <c r="B663" s="1"/>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2">
       <c r="B664" s="1"/>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2">
       <c r="B665" s="1"/>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2">
       <c r="B666" s="1"/>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2">
       <c r="B667" s="1"/>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2">
       <c r="B668" s="1"/>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2">
       <c r="B669" s="1"/>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2">
       <c r="B670" s="1"/>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2">
       <c r="B671" s="1"/>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2">
       <c r="B672" s="1"/>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2">
       <c r="B673" s="1"/>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2">
       <c r="B674" s="1"/>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2">
       <c r="B675" s="1"/>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2">
       <c r="B676" s="1"/>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2">
       <c r="B677" s="1"/>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2">
       <c r="B678" s="1"/>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2">
       <c r="B679" s="1"/>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2">
       <c r="B680" s="1"/>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2">
       <c r="B681" s="1"/>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2">
       <c r="B682" s="1"/>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2">
       <c r="B683" s="1"/>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2">
       <c r="B684" s="1"/>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2">
       <c r="B685" s="1"/>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2">
       <c r="B686" s="1"/>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2">
       <c r="B687" s="1"/>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2">
       <c r="B688" s="1"/>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2">
       <c r="B689" s="1"/>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2">
       <c r="B690" s="1"/>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2">
       <c r="B691" s="1"/>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2">
       <c r="B692" s="1"/>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2">
       <c r="B693" s="1"/>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2">
       <c r="B694" s="1"/>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2">
       <c r="B695" s="1"/>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2">
       <c r="B696" s="1"/>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2">
       <c r="B697" s="1"/>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2">
       <c r="B698" s="1"/>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2">
       <c r="B699" s="1"/>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2">
       <c r="B700" s="1"/>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2">
       <c r="B701" s="1"/>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2">
       <c r="B702" s="1"/>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2">
       <c r="B703" s="1"/>
     </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2">
       <c r="B704" s="1"/>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2">
       <c r="B705" s="1"/>
     </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2">
       <c r="B706" s="1"/>
     </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2">
       <c r="B707" s="1"/>
     </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2">
       <c r="B708" s="1"/>
     </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2">
       <c r="B709" s="1"/>
     </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2">
       <c r="B710" s="1"/>
     </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2">
       <c r="B711" s="1"/>
     </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2">
       <c r="B712" s="1"/>
     </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2">
       <c r="B713" s="1"/>
     </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2">
       <c r="B714" s="1"/>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2">
       <c r="B715" s="1"/>
     </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2">
       <c r="B716" s="1"/>
     </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2">
       <c r="B717" s="1"/>
     </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2">
       <c r="B718" s="1"/>
     </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2">
       <c r="B719" s="1"/>
     </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2">
       <c r="B720" s="1"/>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2">
       <c r="B721" s="1"/>
     </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2">
       <c r="B722" s="1"/>
     </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2">
       <c r="B723" s="1"/>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2">
       <c r="B724" s="1"/>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2">
       <c r="B725" s="1"/>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2">
       <c r="B726" s="1"/>
     </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2">
       <c r="B727" s="1"/>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2">
       <c r="B728" s="1"/>
     </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2">
       <c r="B729" s="1"/>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2">
       <c r="B730" s="1"/>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2">
       <c r="B731" s="1"/>
     </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2">
       <c r="B732" s="1"/>
     </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2">
       <c r="B733" s="1"/>
     </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2">
       <c r="B734" s="1"/>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2">
       <c r="B735" s="1"/>
     </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2">
       <c r="B736" s="1"/>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2">
       <c r="B737" s="1"/>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2">
       <c r="B738" s="1"/>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2">
       <c r="B739" s="1"/>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2">
       <c r="B740" s="1"/>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2">
       <c r="B741" s="1"/>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2">
       <c r="B742" s="1"/>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2">
       <c r="B743" s="1"/>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2">
       <c r="B744" s="1"/>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2">
       <c r="B745" s="1"/>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2">
       <c r="B746" s="1"/>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2">
       <c r="B747" s="1"/>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2">
       <c r="B748" s="1"/>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2">
       <c r="B749" s="1"/>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2">
       <c r="B750" s="1"/>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2">
       <c r="B751" s="1"/>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2">
       <c r="B752" s="1"/>
     </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2">
       <c r="B753" s="1"/>
     </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2">
       <c r="B754" s="1"/>
     </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2">
       <c r="B755" s="1"/>
     </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2">
       <c r="B756" s="1"/>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2">
       <c r="B757" s="1"/>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2">
       <c r="B758" s="1"/>
     </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2">
       <c r="B759" s="1"/>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2">
       <c r="B760" s="1"/>
     </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2">
       <c r="B761" s="1"/>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2">
       <c r="B762" s="1"/>
     </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2">
       <c r="B763" s="1"/>
     </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2">
       <c r="B764" s="1"/>
     </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2">
       <c r="B765" s="1"/>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2">
       <c r="B766" s="1"/>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2">
       <c r="B767" s="1"/>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2">
       <c r="B768" s="1"/>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2">
       <c r="B769" s="1"/>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2">
       <c r="B770" s="1"/>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2">
       <c r="B771" s="1"/>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2">
       <c r="B772" s="1"/>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2">
       <c r="B773" s="1"/>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2">
       <c r="B774" s="1"/>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2">
       <c r="B775" s="1"/>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2">
       <c r="B776" s="1"/>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2">
       <c r="B777" s="1"/>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2">
       <c r="B778" s="1"/>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2">
       <c r="B779" s="1"/>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2">
       <c r="B780" s="1"/>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2">
       <c r="B781" s="1"/>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2">
       <c r="B782" s="1"/>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2">
       <c r="B783" s="1"/>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2">
       <c r="B784" s="1"/>
     </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2">
       <c r="B785" s="1"/>
     </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2">
       <c r="B786" s="1"/>
     </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2">
       <c r="B787" s="1"/>
     </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2">
       <c r="B788" s="1"/>
     </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2">
       <c r="B789" s="1"/>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2">
       <c r="B790" s="1"/>
     </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2">
       <c r="B791" s="1"/>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2">
       <c r="B792" s="1"/>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2">
       <c r="B793" s="1"/>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2">
       <c r="B794" s="1"/>
     </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2">
       <c r="B795" s="1"/>
     </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2">
       <c r="B796" s="1"/>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2">
       <c r="B797" s="1"/>
     </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2">
       <c r="B798" s="1"/>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2">
       <c r="B799" s="1"/>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2">
       <c r="B800" s="1"/>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2">
       <c r="B801" s="1"/>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2">
       <c r="B802" s="1"/>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2">
       <c r="B803" s="1"/>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2">
       <c r="B804" s="1"/>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2">
       <c r="B805" s="1"/>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2">
       <c r="B806" s="1"/>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2">
       <c r="B807" s="1"/>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2">
       <c r="B808" s="1"/>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2">
       <c r="B809" s="1"/>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2">
       <c r="B810" s="1"/>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2">
       <c r="B811" s="1"/>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2">
       <c r="B812" s="1"/>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2">
       <c r="B813" s="1"/>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2">
       <c r="B814" s="1"/>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2">
       <c r="B815" s="1"/>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2">
       <c r="B816" s="1"/>
     </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2">
       <c r="B817" s="1"/>
     </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2">
       <c r="B818" s="1"/>
     </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2">
       <c r="B819" s="1"/>
     </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2">
       <c r="B820" s="1"/>
     </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2">
       <c r="B821" s="1"/>
     </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2">
       <c r="B822" s="1"/>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2">
       <c r="B823" s="1"/>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2">
       <c r="B824" s="1"/>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2">
       <c r="B825" s="1"/>
     </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2">
       <c r="B826" s="1"/>
     </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2">
       <c r="B827" s="1"/>
     </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2">
       <c r="B828" s="1"/>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2">
       <c r="B829" s="1"/>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2">
       <c r="B830" s="1"/>
     </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2">
       <c r="B831" s="1"/>
     </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2">
       <c r="B832" s="1"/>
     </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2">
       <c r="B833" s="1"/>
     </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2">
       <c r="B834" s="1"/>
     </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2">
       <c r="B835" s="1"/>
     </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2">
       <c r="B836" s="1"/>
     </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2">
       <c r="B837" s="1"/>
     </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2">
       <c r="B838" s="1"/>
     </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2">
       <c r="B839" s="1"/>
     </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2">
       <c r="B840" s="1"/>
     </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2">
       <c r="B841" s="1"/>
     </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2">
       <c r="B842" s="1"/>
     </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2">
       <c r="B843" s="1"/>
     </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2">
       <c r="B844" s="1"/>
     </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2">
       <c r="B845" s="1"/>
     </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2">
       <c r="B846" s="1"/>
     </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2">
       <c r="B847" s="1"/>
     </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2">
       <c r="B848" s="1"/>
     </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2">
       <c r="B849" s="1"/>
     </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2">
       <c r="B850" s="1"/>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2">
       <c r="B851" s="1"/>
     </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2">
       <c r="B852" s="1"/>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2">
       <c r="B853" s="1"/>
     </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2">
       <c r="B854" s="1"/>
     </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2">
       <c r="B855" s="1"/>
     </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2">
       <c r="B856" s="1"/>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2">
       <c r="B857" s="1"/>
     </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2">
       <c r="B858" s="1"/>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2">
       <c r="B859" s="1"/>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2">
       <c r="B860" s="1"/>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2">
       <c r="B861" s="1"/>
     </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2">
       <c r="B862" s="1"/>
     </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2">
       <c r="B863" s="1"/>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2">
       <c r="B864" s="1"/>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2">
       <c r="B865" s="1"/>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2">
       <c r="B866" s="1"/>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2">
       <c r="B867" s="1"/>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2">
       <c r="B868" s="1"/>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2">
       <c r="B869" s="1"/>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2">
       <c r="B870" s="1"/>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2">
       <c r="B871" s="1"/>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2">
       <c r="B872" s="1"/>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2">
       <c r="B873" s="1"/>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2">
       <c r="B874" s="1"/>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2">
       <c r="B875" s="1"/>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2">
       <c r="B876" s="1"/>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2">
       <c r="B877" s="1"/>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2">
       <c r="B878" s="1"/>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2">
       <c r="B879" s="1"/>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2">
       <c r="B880" s="1"/>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2">
       <c r="B881" s="1"/>
     </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2">
       <c r="B882" s="1"/>
     </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2">
       <c r="B883" s="1"/>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2">
       <c r="B884" s="1"/>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2">
       <c r="B885" s="1"/>
     </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2">
       <c r="B886" s="1"/>
     </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2">
       <c r="B887" s="1"/>
     </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2">
       <c r="B888" s="1"/>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2">
       <c r="B889" s="1"/>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2">
       <c r="B890" s="1"/>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2">
       <c r="B891" s="1"/>
     </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2">
       <c r="B892" s="1"/>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2">
       <c r="B893" s="1"/>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2">
       <c r="B894" s="1"/>
     </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2">
       <c r="B895" s="1"/>
     </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2">
       <c r="B896" s="1"/>
     </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2">
       <c r="B897" s="1"/>
     </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2">
       <c r="B898" s="1"/>
     </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2">
       <c r="B899" s="1"/>
     </row>
   </sheetData>

--- a/twitter/Tweet-Scale.xlsx
+++ b/twitter/Tweet-Scale.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="APPL" sheetId="4" r:id="rId2"/>
+    <sheet name="AAPL" sheetId="4" r:id="rId2"/>
     <sheet name="MSFT" sheetId="14" r:id="rId3"/>
     <sheet name="GE" sheetId="8" r:id="rId4"/>
     <sheet name="IBM" sheetId="9" r:id="rId5"/>
@@ -22,12 +22,12 @@
     <sheet name="MCD" sheetId="12" r:id="rId13"/>
     <sheet name="MMM" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="364">
   <si>
     <t>AAPL</t>
   </si>
@@ -1110,9 +1110,6 @@
   </si>
   <si>
     <t>Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating </t>
   </si>
   <si>
     <t>Irrevalent to IBM</t>
@@ -1753,7 +1750,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3496,7 +3493,7 @@
         <v>44</v>
       </c>
       <c r="D124" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3507,7 +3504,7 @@
         <v>43021.694571759261</v>
       </c>
       <c r="C125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3538,7 +3535,7 @@
         <v>124</v>
       </c>
       <c r="D127" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3846,7 +3843,7 @@
         <v>37</v>
       </c>
       <c r="D149" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4014,7 +4011,7 @@
         <v>141</v>
       </c>
       <c r="D161" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4097,7 +4094,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5493,7 +5490,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5527,7 +5524,7 @@
         <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5751,7 +5748,7 @@
         <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5821,7 +5818,7 @@
         <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5947,7 +5944,7 @@
         <v>340</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5961,7 +5958,7 @@
         <v>341</v>
       </c>
       <c r="D33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6441,7 +6438,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6461,7 +6458,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/twitter/Tweet-Scale.xlsx
+++ b/twitter/Tweet-Scale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="718"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="718" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="353">
   <si>
     <t>AAPL</t>
   </si>
@@ -140,9 +140,6 @@
     <t>b"RT @ReutersBiz: Apple's annual revenue fell for the first time since 2001. @ReutersGraphics looks at recent iPhone sales: https://t.co/Gnvq\xe2\x80\xa6"</t>
   </si>
   <si>
-    <t>b'RT @CheckpointTax: Tax experts speak about the effects of the #AppleTax ruling, the #BEPS MLI, U.S. tax reform and more! [VIDEO] --&amp;gt; https:\xe2\x80\xa6'</t>
-  </si>
-  <si>
     <t>b"The significance of @EU_Commission decision imposing \xe2\x82\xac13B Irish back-tax bill on Apple shouldn't be underestimated: https://t.co/233yhdBrRn"</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>b"RT @johnsfoley: #Apple's possible E13bn back-tax bill is almost 30% of all the cash tax the company has paid since 2003, acc @thomsonreuter\xe2\x80\xa6"</t>
   </si>
   <si>
-    <t>b'Bai is giving Dr Pepper Snapple a lesson in what it takes to handle a rapidly growing brand https://t.co/eqpjKqqwpn'</t>
-  </si>
-  <si>
     <t>b'Apple hired a top UK TV executive to help boost its video content https://t.co/pKswcT56T4'</t>
   </si>
   <si>
@@ -401,9 +395,6 @@
     <t>b'Apple teases new emoji, including a hedgehog, giraffe, fairy, dinosaur, vampire, and a carton of Chinese takeout\xe2\x80\xa6 https://t.co/2hufk7P9nX'</t>
   </si>
   <si>
-    <t>b'Democrats wonder if they can win in Alabama while the GOP grapples with Roy Moore in DC https://t.co/DZzS0A9QuJ https://t.co/fAM81LJYMj'</t>
-  </si>
-  <si>
     <t>b'Apple released its latest iOS 11 update in a snap to make a crackle stop https://t.co/6XK7uNlq4U'</t>
   </si>
   <si>
@@ -452,9 +443,6 @@
     <t>b'Inside Apple and Qualcomm\xe2\x80\x99s billion-dollar war over an $18 part https://t.co/95Ka15A16s https://t.co/aNLDdidjsV'</t>
   </si>
   <si>
-    <t>b'Trudeau grapples with Trump\xe2\x80\x99s mixed messages on Nafta\xe2\x80\x99s fate https://t.co/pEvCb9Z9YW https://t.co/ZYCaa0cets'</t>
-  </si>
-  <si>
     <t>b"The EU sues Ireland for failing to collect Apple's \xe2\x82\xac13 billion tax bill https://t.co/SvjcnW1Ios https://t.co/vX9zwciYWY"</t>
   </si>
   <si>
@@ -623,9 +611,6 @@
     <t>b'Hollywood and Apple are considering a plan to rent out new movies\nhttps://t.co/5IfeEz9vlK https://t.co/K8fWEJ2nsA'</t>
   </si>
   <si>
-    <t>b'@BIBM0DERN Hello--please email human.resources@thomsonreuters.com for assistance.'</t>
-  </si>
-  <si>
     <t>b'RT @Forward_Lane: Ultra high brainpower and real insights in the AI Panel @ #trtech @thomsonreuters @IBMWatson @Azure @DigitalMcKinsey http\xe2\x80\xa6'</t>
   </si>
   <si>
@@ -938,9 +923,6 @@
     <t>b'IBM set to report earnings after the bell https://t.co/gLtkHBPaDj'</t>
   </si>
   <si>
-    <t>b'Google is rolling out advanced Gmail security for government officials and journalists https://t.co/FnhhZA3IbM'</t>
-  </si>
-  <si>
     <t>b'IBM has a new blockchain for banks to speed up cross-border payments https://t.co/pdlS9hrXqN'</t>
   </si>
   <si>
@@ -968,9 +950,6 @@
     <t>b'IBM is doubling the amount of paid leave that new parents get https://t.co/EanGMIDeNG https://t.co/7de4W2X7P6'</t>
   </si>
   <si>
-    <t>b'RT @NewDay: "This is real, folks," @JohnAvlon says of Trump\'s "IQ" comment on Tillerson. "That\'s insane" https://t.co/hibmT79P4j https://t.\xe2\x80\xa6'</t>
-  </si>
-  <si>
     <t>b'Robert Guillaume, the star of the TV sitcom "Benson" and voice of Rafiki in Disney\'s "The Lion King," has died at 8\xe2\x80\xa6 https://t.co/C6lr8BkGP2'</t>
   </si>
   <si>
@@ -1049,12 +1028,6 @@
     <t>b'IBM reports marginal dip in quarterly revenue https://t.co/51I7dUj0yr https://t.co/O678aeITNr'</t>
   </si>
   <si>
-    <t>b'Comerica Q3 profit rises 51.4% $CMA  #Earnings https://t.co/IBMloNJgwC'</t>
-  </si>
-  <si>
-    <t>b'CSX CEO Harrison apologizes to rail customers, defends strategy https://t.co/yBr0iBMP34'</t>
-  </si>
-  <si>
     <t>b'#BreakingNews: Nelson Peltz not elected to to the @ProcterGamble board https://t.co/Sd0loEcdHs'</t>
   </si>
   <si>
@@ -1110,12 +1083,6 @@
   </si>
   <si>
     <t>Rating</t>
-  </si>
-  <si>
-    <t>Irrevalent to IBM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News not related to Apple Inc. </t>
   </si>
   <si>
     <t>o9o</t>
@@ -1479,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1492,18 +1459,18 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1517,10 +1484,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1531,13 +1498,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1548,13 +1515,13 @@
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1565,13 +1532,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1585,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1599,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1621,7 +1588,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1632,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1643,7 +1610,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1654,7 +1621,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1737,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -1747,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="C142" workbookViewId="0">
+      <selection activeCell="C158" sqref="A158:XFD158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1771,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1782,7 +1749,7 @@
         <v>43021.597222222219</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1796,7 +1763,7 @@
         <v>43027.992268518516</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1810,7 +1777,7 @@
         <v>43019.595138888886</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1824,7 +1791,7 @@
         <v>43028.947916666664</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1838,7 +1805,7 @@
         <v>43020.706944444442</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1852,7 +1819,7 @@
         <v>43031.859027777777</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1866,7 +1833,7 @@
         <v>43032.165972222225</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1880,7 +1847,7 @@
         <v>43033.563194444447</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1894,7 +1861,7 @@
         <v>43022.180555555555</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1908,7 +1875,7 @@
         <v>43032.104861111111</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1922,7 +1889,7 @@
         <v>43031.761805555558</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1936,7 +1903,7 @@
         <v>43014.737500000003</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1950,7 +1917,7 @@
         <v>43006.584143518521</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1964,7 +1931,7 @@
         <v>43029.062523148146</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1978,7 +1945,7 @@
         <v>43033.451388888891</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1992,7 +1959,7 @@
         <v>42990.102847222224</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -2006,7 +1973,7 @@
         <v>42989.800810185188</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2020,7 +1987,7 @@
         <v>42990.511446759258</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2034,7 +2001,7 @@
         <v>43028.531944444447</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2048,7 +2015,7 @@
         <v>43020.481944444444</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -2062,7 +2029,7 @@
         <v>43014.852083333331</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2076,7 +2043,7 @@
         <v>42990.938275462962</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -2090,7 +2057,7 @@
         <v>43024.616666666669</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2104,7 +2071,7 @@
         <v>43026.125</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -2118,7 +2085,7 @@
         <v>42990.872986111113</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2132,7 +2099,7 @@
         <v>42999.750775462962</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -2146,7 +2113,7 @@
         <v>43028.606249999997</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2160,7 +2127,7 @@
         <v>42991.834108796298</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2174,7 +2141,7 @@
         <v>43024.318055555559</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2188,7 +2155,7 @@
         <v>43027.614583333336</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2202,7 +2169,7 @@
         <v>43018.644444444442</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2216,7 +2183,7 @@
         <v>43033.542361111111</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -2230,7 +2197,7 @@
         <v>43016.334467592591</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -2244,7 +2211,7 @@
         <v>43015.365717592591</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -2258,7 +2225,7 @@
         <v>43010.718333333331</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2272,7 +2239,7 @@
         <v>43002.636064814818</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -2286,7 +2253,7 @@
         <v>42999.000590277778</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -2300,7 +2267,7 @@
         <v>42998.642893518518</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2314,7 +2281,7 @@
         <v>42991.917395833334</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -2328,7 +2295,7 @@
         <v>42989.580717592595</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2342,7 +2309,7 @@
         <v>43001.030960648146</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -2356,7 +2323,7 @@
         <v>43000.701226851852</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -2370,7 +2337,7 @@
         <v>42991.024386574078</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2384,7 +2351,7 @@
         <v>42991.490057870367</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2398,7 +2365,7 @@
         <v>42992.992418981485</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2412,7 +2379,7 @@
         <v>42994.030613425923</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2426,7 +2393,7 @@
         <v>42993.493159722224</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2440,7 +2407,7 @@
         <v>42992.003032407411</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2454,7 +2421,7 @@
         <v>43014.277083333334</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2468,7 +2435,7 @@
         <v>43024.544444444444</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2482,7 +2449,7 @@
         <v>43032.447777777779</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2496,7 +2463,7 @@
         <v>42992.471585648149</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -2510,7 +2477,7 @@
         <v>42991.865358796298</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -2524,7 +2491,7 @@
         <v>43007.519872685189</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2538,7 +2505,7 @@
         <v>42619.85733796296</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2552,7 +2519,7 @@
         <v>42612.482777777775</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2608,7 +2575,7 @@
         <v>43026.772222222222</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -2622,7 +2589,7 @@
         <v>43028.188194444447</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -2636,7 +2603,7 @@
         <v>43032.304166666669</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2650,7 +2617,7 @@
         <v>42999.788506944446</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -2664,7 +2631,7 @@
         <v>43003.202303240738</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -2678,7 +2645,7 @@
         <v>42999.130601851852</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -2692,7 +2659,7 @@
         <v>42999.378379629627</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2706,7 +2673,7 @@
         <v>43002.591956018521</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -2720,7 +2687,7 @@
         <v>42998.804236111115</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -2734,7 +2701,7 @@
         <v>43012.661944444444</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2748,7 +2715,7 @@
         <v>43009.500694444447</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2762,7 +2729,7 @@
         <v>42622.792094907411</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -2776,7 +2743,7 @@
         <v>42990.697592592594</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2790,7 +2757,7 @@
         <v>42991.828576388885</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -2804,7 +2771,7 @@
         <v>43028.824999999997</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -2818,7 +2785,7 @@
         <v>43011.520138888889</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2832,7 +2799,7 @@
         <v>42990.823148148149</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -2846,7 +2813,7 @@
         <v>43020.725706018522</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -2860,7 +2827,7 @@
         <v>43021.270844907405</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -2874,7 +2841,7 @@
         <v>42615.834363425929</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2888,7 +2855,7 @@
         <v>43027.684027777781</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2902,7 +2869,7 @@
         <v>43005.877858796295</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -2916,7 +2883,7 @@
         <v>43019.863194444442</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -2930,7 +2897,7 @@
         <v>43032.744444444441</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -2944,7 +2911,7 @@
         <v>43033.041666666664</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -2958,7 +2925,7 @@
         <v>43026.545138888891</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -2972,7 +2939,7 @@
         <v>43032.613888888889</v>
       </c>
       <c r="C87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -2986,7 +2953,7 @@
         <v>43033.679861111108</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -3000,7 +2967,7 @@
         <v>43024.923611111109</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -3014,7 +2981,7 @@
         <v>43027.57708333333</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -3028,7 +2995,7 @@
         <v>43002.100763888891</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -3042,7 +3009,7 @@
         <v>42999.654745370368</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -3056,7 +3023,7 @@
         <v>43002.538229166668</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -3070,7 +3037,7 @@
         <v>43000.11409722222</v>
       </c>
       <c r="C94" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -3084,7 +3051,7 @@
         <v>43026.041666666664</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -3098,7 +3065,7 @@
         <v>43033.692361111112</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -3112,7 +3079,7 @@
         <v>43015.865277777775</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -3126,7 +3093,7 @@
         <v>43006.692789351851</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -3140,7 +3107,7 @@
         <v>43006.967106481483</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D99">
         <v>4</v>
@@ -3154,7 +3121,7 @@
         <v>42993.588483796295</v>
       </c>
       <c r="C100" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -3168,7 +3135,7 @@
         <v>43011.717361111114</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -3182,7 +3149,7 @@
         <v>43028.020833333336</v>
       </c>
       <c r="C102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -3196,7 +3163,7 @@
         <v>43032.538888888892</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D103">
         <v>4</v>
@@ -3210,7 +3177,7 @@
         <v>43011.871388888889</v>
       </c>
       <c r="C104" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -3224,7 +3191,7 @@
         <v>43028.088888888888</v>
       </c>
       <c r="C105" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -3238,7 +3205,7 @@
         <v>43028.667361111111</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -3252,7 +3219,7 @@
         <v>43017.511111111111</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -3266,7 +3233,7 @@
         <v>43021.68613425926</v>
       </c>
       <c r="C108" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -3280,7 +3247,7 @@
         <v>43014.677824074075</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -3294,7 +3261,7 @@
         <v>43015.479907407411</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -3308,7 +3275,7 @@
         <v>43015.726898148147</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -3322,7 +3289,7 @@
         <v>43016.500752314816</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -3336,7 +3303,7 @@
         <v>43016.396296296298</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D113">
         <v>4</v>
@@ -3350,7 +3317,7 @@
         <v>43016.669189814813</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -3364,7 +3331,7 @@
         <v>42990.79965277778</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -3378,7 +3345,7 @@
         <v>43024.51458333333</v>
       </c>
       <c r="C116" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D116">
         <v>4</v>
@@ -3392,7 +3359,7 @@
         <v>42990.843136574076</v>
       </c>
       <c r="C117" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D117">
         <v>4</v>
@@ -3406,7 +3373,7 @@
         <v>43010.536111111112</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D118">
         <v>4</v>
@@ -3420,7 +3387,7 @@
         <v>43032.482638888891</v>
       </c>
       <c r="C119" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -3434,7 +3401,7 @@
         <v>43033.650462962964</v>
       </c>
       <c r="C120" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D120">
         <v>4</v>
@@ -3448,7 +3415,7 @@
         <v>43014.81962962963</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3462,7 +3429,7 @@
         <v>43015.521608796298</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -3476,91 +3443,91 @@
         <v>43003.784409722219</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="2">
-        <v>9.23328E+17</v>
+      <c r="A124">
+        <v>9.1887904553378995E+17</v>
       </c>
       <c r="B124" s="1">
-        <v>43033.970138888886</v>
+        <v>43021.694571759261</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
-      </c>
-      <c r="D124" t="s">
-        <v>362</v>
+        <v>352</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125">
-        <v>9.1887904553378995E+17</v>
+      <c r="A125" s="2">
+        <v>9.20788E+17</v>
       </c>
       <c r="B125" s="1">
-        <v>43021.694571759261</v>
+        <v>43026.961805555555</v>
       </c>
       <c r="C125" t="s">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="2">
-        <v>9.20788E+17</v>
+      <c r="A126">
+        <v>9.1633870724184806E+17</v>
       </c>
       <c r="B126" s="1">
-        <v>43026.961805555555</v>
+        <v>43014.684571759259</v>
       </c>
       <c r="C126" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>9.1591625084442202E+17</v>
+        <v>9.1235414553287795E+17</v>
       </c>
       <c r="B127" s="1">
-        <v>43013.518807870372</v>
+        <v>43003.689270833333</v>
       </c>
       <c r="C127" t="s">
-        <v>124</v>
-      </c>
-      <c r="D127" t="s">
-        <v>362</v>
+        <v>148</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128">
-        <v>9.1633870724184806E+17</v>
+      <c r="A128" s="2">
+        <v>9.22433E+17</v>
       </c>
       <c r="B128" s="1">
-        <v>43014.684571759259</v>
+        <v>43031.5</v>
       </c>
       <c r="C128" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129">
-        <v>9.1235414553287795E+17</v>
+      <c r="A129" s="2">
+        <v>9.20606E+17</v>
       </c>
       <c r="B129" s="1">
-        <v>43003.689270833333</v>
+        <v>43026.459722222222</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -3568,41 +3535,41 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>9.22433E+17</v>
+        <v>9.21057E+17</v>
       </c>
       <c r="B130" s="1">
-        <v>43031.5</v>
+        <v>43027.703472222223</v>
       </c>
       <c r="C130" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="2">
-        <v>9.20606E+17</v>
+      <c r="A131">
+        <v>9.1704692969073395E+17</v>
       </c>
       <c r="B131" s="1">
-        <v>43026.459722222222</v>
+        <v>43016.638888888891</v>
       </c>
       <c r="C131" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="2">
-        <v>9.21057E+17</v>
+      <c r="A132">
+        <v>9.1431995385517594E+17</v>
       </c>
       <c r="B132" s="1">
-        <v>43027.703472222223</v>
+        <v>43009.113865740743</v>
       </c>
       <c r="C132" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -3610,13 +3577,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>9.1704692969073395E+17</v>
+        <v>9.1365553003553498E+17</v>
       </c>
       <c r="B133" s="1">
-        <v>43016.638888888891</v>
+        <v>43007.280405092592</v>
       </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -3624,153 +3591,153 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>9.1431995385517594E+17</v>
+        <v>9.2257241917215501E+17</v>
       </c>
       <c r="B134" s="1">
-        <v>43009.113865740743</v>
+        <v>43031.886331018519</v>
       </c>
       <c r="C134" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D134">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135">
-        <v>9.1365553003553498E+17</v>
+      <c r="A135" s="2">
+        <v>9.15322E+17</v>
       </c>
       <c r="B135" s="1">
-        <v>43007.280405092592</v>
+        <v>43011.878472222219</v>
       </c>
       <c r="C135" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136">
-        <v>9.2257241917215501E+17</v>
+      <c r="A136" s="2">
+        <v>9.15426E+17</v>
       </c>
       <c r="B136" s="1">
-        <v>43031.886331018519</v>
+        <v>43012.165972222225</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>9.15322E+17</v>
+        <v>9.17388E+17</v>
       </c>
       <c r="B137" s="1">
-        <v>43011.878472222219</v>
+        <v>43017.579861111109</v>
       </c>
       <c r="C137" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D137">
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="2">
-        <v>9.15426E+17</v>
+      <c r="A138">
+        <v>9.0674240629241395E+17</v>
       </c>
       <c r="B138" s="1">
-        <v>43012.165972222225</v>
+        <v>42988.203819444447</v>
       </c>
       <c r="C138" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="2">
-        <v>9.17388E+17</v>
+      <c r="A139">
+        <v>9.2324802730482803E+17</v>
       </c>
       <c r="B139" s="1">
-        <v>43017.579861111109</v>
+        <v>43033.750659722224</v>
       </c>
       <c r="C139" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>9.0674240629241395E+17</v>
+        <v>9.1888241074129306E+17</v>
       </c>
       <c r="B140" s="1">
-        <v>42988.203819444447</v>
+        <v>43021.70385416667</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>9.2324802730482803E+17</v>
+        <v>9.0768009229737498E+17</v>
       </c>
       <c r="B141" s="1">
-        <v>43033.750659722224</v>
+        <v>42990.791342592594</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142">
-        <v>9.1888241074129306E+17</v>
+      <c r="A142" s="2">
+        <v>9.22813E+17</v>
       </c>
       <c r="B142" s="1">
-        <v>43021.70385416667</v>
+        <v>43032.548611111109</v>
       </c>
       <c r="C142" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143">
-        <v>9.0768009229737498E+17</v>
+      <c r="A143" s="2">
+        <v>9.1994E+17</v>
       </c>
       <c r="B143" s="1">
-        <v>42990.791342592594</v>
+        <v>43024.622916666667</v>
       </c>
       <c r="C143" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>9.22813E+17</v>
+        <v>9.2047E+17</v>
       </c>
       <c r="B144" s="1">
-        <v>43032.548611111109</v>
+        <v>43026.083333333336</v>
       </c>
       <c r="C144" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -3778,167 +3745,167 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>9.1994E+17</v>
+        <v>9.18888E+17</v>
       </c>
       <c r="B145" s="1">
-        <v>43024.622916666667</v>
+        <v>43021.719444444447</v>
       </c>
       <c r="C145" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>9.2047E+17</v>
+        <v>9.18341E+17</v>
       </c>
       <c r="B146" s="1">
-        <v>43026.083333333336</v>
+        <v>43020.208333333336</v>
       </c>
       <c r="C146" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D146">
         <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="2">
-        <v>9.18888E+17</v>
+      <c r="A147">
+        <v>7.7355516738797901E+17</v>
       </c>
       <c r="B147" s="1">
-        <v>43021.719444444447</v>
+        <v>42620.677060185182</v>
       </c>
       <c r="C147" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>7.7181655708103795E+17</v>
+      </c>
+      <c r="B148" s="1">
+        <v>42615.87940972222</v>
+      </c>
+      <c r="C148" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
+        <v>9.154E+17</v>
+      </c>
+      <c r="B149" s="1">
+        <v>43012.09375</v>
+      </c>
+      <c r="C149" t="s">
+        <v>105</v>
+      </c>
+      <c r="D149">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
-        <v>9.18341E+17</v>
-      </c>
-      <c r="B148" s="1">
-        <v>43020.208333333336</v>
-      </c>
-      <c r="C148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149">
-        <v>7.8810527310572301E+17</v>
-      </c>
-      <c r="B149" s="1">
-        <v>42660.827708333331</v>
-      </c>
-      <c r="C149" t="s">
-        <v>37</v>
-      </c>
-      <c r="D149" t="s">
-        <v>362</v>
-      </c>
-    </row>
     <row r="150" spans="1:4">
-      <c r="A150">
-        <v>7.7355516738797901E+17</v>
+      <c r="A150" s="2">
+        <v>9.15325E+17</v>
       </c>
       <c r="B150" s="1">
-        <v>42620.677060185182</v>
+        <v>43011.888194444444</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>7.7181655708103795E+17</v>
+        <v>9.0802781881405402E+17</v>
       </c>
       <c r="B151" s="1">
-        <v>42615.87940972222</v>
+        <v>42991.750891203701</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>9.154E+17</v>
+        <v>9.2066E+17</v>
       </c>
       <c r="B152" s="1">
-        <v>43012.09375</v>
+        <v>43026.609027777777</v>
       </c>
       <c r="C152" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>9.15325E+17</v>
+        <v>9.17691E+17</v>
       </c>
       <c r="B153" s="1">
-        <v>43011.888194444444</v>
+        <v>43018.417361111111</v>
       </c>
       <c r="C153" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
+        <v>9.15518E+17</v>
+      </c>
+      <c r="B154" s="1">
+        <v>43012.418749999997</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154">
-        <v>9.0802781881405402E+17</v>
-      </c>
-      <c r="B154" s="1">
-        <v>42991.750891203701</v>
-      </c>
-      <c r="C154" t="s">
-        <v>180</v>
-      </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-    </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="2">
-        <v>9.2066E+17</v>
+      <c r="A155">
+        <v>9.0735212327632794E+17</v>
       </c>
       <c r="B155" s="1">
-        <v>43026.609027777777</v>
+        <v>42989.886319444442</v>
       </c>
       <c r="C155" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="D155">
         <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="2">
-        <v>9.17691E+17</v>
+      <c r="A156">
+        <v>9.0759374363244096E+17</v>
       </c>
       <c r="B156" s="1">
-        <v>43018.417361111111</v>
+        <v>42990.553067129629</v>
       </c>
       <c r="C156" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="D156">
         <v>4</v>
@@ -3946,141 +3913,85 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>9.15518E+17</v>
+        <v>9.19947E+17</v>
       </c>
       <c r="B157" s="1">
-        <v>43012.418749999997</v>
+        <v>43024.640277777777</v>
       </c>
       <c r="C157" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>9.0735212327632794E+17</v>
+        <v>9.0737140040673203E+17</v>
       </c>
       <c r="B158" s="1">
-        <v>42989.886319444442</v>
+        <v>42989.939513888887</v>
       </c>
       <c r="C158" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159">
-        <v>9.0759374363244096E+17</v>
+      <c r="A159" s="2">
+        <v>9.16262E+17</v>
       </c>
       <c r="B159" s="1">
-        <v>42990.553067129629</v>
+        <v>43014.472916666666</v>
       </c>
       <c r="C159" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="2">
-        <v>9.19947E+17</v>
+      <c r="A160">
+        <v>9.0804292084171494E+17</v>
       </c>
       <c r="B160" s="1">
-        <v>43024.640277777777</v>
+        <v>42991.792557870373</v>
       </c>
       <c r="C160" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>9.1854085810172698E+17</v>
+        <v>9.2106902107568499E+17</v>
       </c>
       <c r="B161" s="1">
-        <v>43020.761342592596</v>
+        <v>43027.737743055557</v>
       </c>
       <c r="C161" t="s">
-        <v>141</v>
-      </c>
-      <c r="D161" t="s">
-        <v>362</v>
+        <v>136</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162">
-        <v>9.0737140040673203E+17</v>
+      <c r="A162" s="2">
+        <v>9.21265E+17</v>
       </c>
       <c r="B162" s="1">
-        <v>42989.939513888887</v>
+        <v>43028.279166666667</v>
       </c>
       <c r="C162" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="D162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
-        <v>9.16262E+17</v>
-      </c>
-      <c r="B163" s="1">
-        <v>43014.472916666666</v>
-      </c>
-      <c r="C163" t="s">
-        <v>103</v>
-      </c>
-      <c r="D163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164">
-        <v>9.0804292084171494E+17</v>
-      </c>
-      <c r="B164" s="1">
-        <v>42991.792557870373</v>
-      </c>
-      <c r="C164" t="s">
-        <v>179</v>
-      </c>
-      <c r="D164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165">
-        <v>9.2106902107568499E+17</v>
-      </c>
-      <c r="B165" s="1">
-        <v>43027.737743055557</v>
-      </c>
-      <c r="C165" t="s">
-        <v>139</v>
-      </c>
-      <c r="D165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
-        <v>9.21265E+17</v>
-      </c>
-      <c r="B166" s="1">
-        <v>43028.279166666667</v>
-      </c>
-      <c r="C166" t="s">
-        <v>67</v>
-      </c>
-      <c r="D166">
         <v>2</v>
       </c>
     </row>
@@ -4093,7 +4004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4114,7 +4025,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4125,7 +4036,7 @@
         <v>43007.786030092589</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -4139,7 +4050,7 @@
         <v>43005.917800925927</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -4153,7 +4064,7 @@
         <v>43005.887928240743</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -4167,7 +4078,7 @@
         <v>43005.879837962966</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -4195,7 +4106,7 @@
         <v>43003.8125462963</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -4209,7 +4120,7 @@
         <v>42710.90966435185</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -4223,7 +4134,7 @@
         <v>42641.929097222222</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -4237,7 +4148,7 @@
         <v>42639.762141203704</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -4251,7 +4162,7 @@
         <v>43034.041909722226</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -4265,7 +4176,7 @@
         <v>43033.720266203702</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -4279,7 +4190,7 @@
         <v>43033.678576388891</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -4293,7 +4204,7 @@
         <v>43033.657372685186</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -4307,7 +4218,7 @@
         <v>43033.636481481481</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -4321,7 +4232,7 @@
         <v>43033.615833333337</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -4335,7 +4246,7 @@
         <v>43033.604317129626</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -4349,7 +4260,7 @@
         <v>43024.860995370371</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4363,7 +4274,7 @@
         <v>43018.94872685185</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4377,7 +4288,7 @@
         <v>43007.147349537037</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -4391,7 +4302,7 @@
         <v>43007.074641203704</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -4405,7 +4316,7 @@
         <v>43006.889039351852</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -4419,7 +4330,7 @@
         <v>43006.812754629631</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -4433,7 +4344,7 @@
         <v>43005.896087962959</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -4447,7 +4358,7 @@
         <v>43033.536550925928</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -4461,7 +4372,7 @@
         <v>43031.670844907407</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -4475,7 +4386,7 @@
         <v>43028.71166666667</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -4489,7 +4400,7 @@
         <v>43028.542222222219</v>
       </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4503,7 +4414,7 @@
         <v>43026.643680555557</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4517,7 +4428,7 @@
         <v>43025.75203703704</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -4531,7 +4442,7 @@
         <v>43025.595682870371</v>
       </c>
       <c r="C31" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4545,7 +4456,7 @@
         <v>43025.542557870373</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -4559,7 +4470,7 @@
         <v>43024.908645833333</v>
       </c>
       <c r="C33" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -4573,7 +4484,7 @@
         <v>43024.608773148146</v>
       </c>
       <c r="C34" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4587,7 +4498,7 @@
         <v>43021.715509259258</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4601,7 +4512,7 @@
         <v>43021.634675925925</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4615,7 +4526,7 @@
         <v>43020.791076388887</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -4629,7 +4540,7 @@
         <v>43020.747199074074</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -4643,7 +4554,7 @@
         <v>43017.914537037039</v>
       </c>
       <c r="C39" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4657,7 +4568,7 @@
         <v>43017.509513888886</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4671,7 +4582,7 @@
         <v>43014.010428240741</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -4685,7 +4596,7 @@
         <v>43013.633275462962</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -4699,7 +4610,7 @@
         <v>43012.918043981481</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -4713,7 +4624,7 @@
         <v>43012.883692129632</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -4727,7 +4638,7 @@
         <v>43012.521157407406</v>
       </c>
       <c r="C45" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4741,7 +4652,7 @@
         <v>43010.812199074076</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -4755,7 +4666,7 @@
         <v>43026.63009259259</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -4769,7 +4680,7 @@
         <v>43026.267962962964</v>
       </c>
       <c r="C48" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -4783,7 +4694,7 @@
         <v>43030.916666666664</v>
       </c>
       <c r="C49" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -4797,7 +4708,7 @@
         <v>43025.88890046296</v>
       </c>
       <c r="C50" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -4811,7 +4722,7 @@
         <v>43016.069444444445</v>
       </c>
       <c r="C51" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -4825,7 +4736,7 @@
         <v>43015.25</v>
       </c>
       <c r="C52" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -4839,7 +4750,7 @@
         <v>43014.489594907405</v>
       </c>
       <c r="C53" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -4854,7 +4765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4875,7 +4786,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4914,7 +4825,7 @@
         <v>43033.170868055553</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4928,7 +4839,7 @@
         <v>43033.097083333334</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4942,7 +4853,7 @@
         <v>43033.004259259258</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4956,7 +4867,7 @@
         <v>43032.935439814813</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4970,7 +4881,7 @@
         <v>43031.853831018518</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4984,7 +4895,7 @@
         <v>43028.747523148151</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4998,7 +4909,7 @@
         <v>43028.689166666663</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -5012,7 +4923,7 @@
         <v>42988.038437499999</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -5026,7 +4937,7 @@
         <v>43032.819328703707</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5040,7 +4951,7 @@
         <v>43032.640439814815</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5054,7 +4965,7 @@
         <v>43031.834756944445</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5068,7 +4979,7 @@
         <v>43031.639340277776</v>
       </c>
       <c r="C15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5082,7 +4993,7 @@
         <v>43028.834062499998</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -5096,7 +5007,7 @@
         <v>43028.626307870371</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -5110,7 +5021,7 @@
         <v>43028.594259259262</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5124,7 +5035,7 @@
         <v>43028.593541666669</v>
       </c>
       <c r="C19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5138,7 +5049,7 @@
         <v>43028.592499999999</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -5152,7 +5063,7 @@
         <v>43028.589583333334</v>
       </c>
       <c r="C21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -5166,7 +5077,7 @@
         <v>43028.55908564815</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -5180,7 +5091,7 @@
         <v>43028.555300925924</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -5194,7 +5105,7 @@
         <v>43026.900185185186</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -5208,7 +5119,7 @@
         <v>43026.849583333336</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -5222,7 +5133,7 @@
         <v>43026.545277777775</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -5236,7 +5147,7 @@
         <v>43025.822488425925</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -5250,7 +5161,7 @@
         <v>43025.537141203706</v>
       </c>
       <c r="C28" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -5264,7 +5175,7 @@
         <v>43024.962453703702</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5278,7 +5189,7 @@
         <v>43019.610983796294</v>
       </c>
       <c r="C30" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -5292,7 +5203,7 @@
         <v>43019.56622685185</v>
       </c>
       <c r="C31" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -5306,7 +5217,7 @@
         <v>43018.762465277781</v>
       </c>
       <c r="C32" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -5320,7 +5231,7 @@
         <v>43017.865925925929</v>
       </c>
       <c r="C33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -5334,7 +5245,7 @@
         <v>43014.858969907407</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -5348,7 +5259,7 @@
         <v>43014.145983796298</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -5362,7 +5273,7 @@
         <v>43010.888518518521</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -5376,7 +5287,7 @@
         <v>43010.843472222223</v>
       </c>
       <c r="C37" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -5390,7 +5301,7 @@
         <v>43029.166678240741</v>
       </c>
       <c r="C38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5404,7 +5315,7 @@
         <v>43028.541724537034</v>
       </c>
       <c r="C39" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -5418,7 +5329,7 @@
         <v>43028.243067129632</v>
       </c>
       <c r="C40" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5432,7 +5343,7 @@
         <v>43028.229178240741</v>
       </c>
       <c r="C41" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -5446,7 +5357,7 @@
         <v>43027.721064814818</v>
       </c>
       <c r="C42" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -5460,7 +5371,7 @@
         <v>43021.180555555555</v>
       </c>
       <c r="C43" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5474,7 +5385,7 @@
         <v>43014.877164351848</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -5487,10 +5398,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5510,60 +5421,60 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>9.1667755708024806E+17</v>
+        <v>8.0448566546342195E+17</v>
       </c>
       <c r="B2" s="1">
-        <v>43015.619618055556</v>
+        <v>42706.028969907406</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" t="s">
-        <v>361</v>
+        <v>194</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>8.0448566546342195E+17</v>
+        <v>7.9457383936354304E+17</v>
       </c>
       <c r="B3" s="1">
-        <v>42706.028969907406</v>
+        <v>42678.677546296298</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>7.9457383936354304E+17</v>
+        <v>9.0806975702636506E+17</v>
       </c>
       <c r="B4" s="1">
-        <v>42678.677546296298</v>
+        <v>42991.866608796299</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>9.0806975702636506E+17</v>
+        <v>9.0802995246478899E+17</v>
       </c>
       <c r="B5" s="1">
-        <v>42991.866608796299</v>
+        <v>42991.75677083333</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -5571,13 +5482,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>9.0802995246478899E+17</v>
+        <v>9.2078051820303501E+17</v>
       </c>
       <c r="B6" s="1">
-        <v>42991.75677083333</v>
+        <v>43026.941631944443</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5585,27 +5496,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>9.2078051820303501E+17</v>
+        <v>9.2074219858025997E+17</v>
       </c>
       <c r="B7" s="1">
-        <v>43026.941631944443</v>
+        <v>43026.8358912037</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>9.2074219858025997E+17</v>
+        <v>9.2071882663497306E+17</v>
       </c>
       <c r="B8" s="1">
-        <v>43026.8358912037</v>
+        <v>43026.77140046296</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5613,13 +5524,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>9.2071882663497306E+17</v>
+        <v>9.2068110357226202E+17</v>
       </c>
       <c r="B9" s="1">
-        <v>43026.77140046296</v>
+        <v>43026.667303240742</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -5627,13 +5538,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>9.2068110357226202E+17</v>
+        <v>9.2065634303125504E+17</v>
       </c>
       <c r="B10" s="1">
-        <v>43026.667303240742</v>
+        <v>43026.598969907405</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -5641,13 +5552,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>9.2065634303125504E+17</v>
+        <v>9.2065499024663706E+17</v>
       </c>
       <c r="B11" s="1">
-        <v>43026.598969907405</v>
+        <v>43026.595243055555</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -5655,13 +5566,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>9.2065499024663706E+17</v>
+        <v>9.2064440916689306E+17</v>
       </c>
       <c r="B12" s="1">
-        <v>43026.595243055555</v>
+        <v>43026.566041666665</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -5669,13 +5580,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>9.2064440916689306E+17</v>
+        <v>9.2040890424011494E+17</v>
       </c>
       <c r="B13" s="1">
-        <v>43026.566041666665</v>
+        <v>43025.916168981479</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -5683,13 +5594,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>9.2040890424011494E+17</v>
+        <v>9.20400634762944E+17</v>
       </c>
       <c r="B14" s="1">
-        <v>43025.916168981479</v>
+        <v>43025.89335648148</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -5697,27 +5608,27 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>9.20400634762944E+17</v>
+        <v>9.2038187475267904E+17</v>
       </c>
       <c r="B15" s="1">
-        <v>43025.89335648148</v>
+        <v>43025.841585648152</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>9.2038187475267904E+17</v>
+        <v>9.2037117444139802E+17</v>
       </c>
       <c r="B16" s="1">
-        <v>43025.841585648152</v>
+        <v>43025.812060185184</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -5725,13 +5636,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>9.2037117444139802E+17</v>
+        <v>9.1986874674699802E+17</v>
       </c>
       <c r="B17" s="1">
-        <v>43025.812060185184</v>
+        <v>43024.425625000003</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -5739,27 +5650,27 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>9.2027824874290304E+17</v>
+        <v>9.1565407823921101E+17</v>
       </c>
       <c r="B18" s="1">
-        <v>43025.555636574078</v>
+        <v>43012.795347222222</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
-      </c>
-      <c r="D18" t="s">
-        <v>361</v>
+        <v>288</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>9.1986874674699802E+17</v>
+        <v>9.1420943557638899E+17</v>
       </c>
       <c r="B19" s="1">
-        <v>43024.425625000003</v>
+        <v>43008.808900462966</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -5767,27 +5678,27 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>9.1565407823921101E+17</v>
+        <v>9.2325286514101798E+17</v>
       </c>
       <c r="B20" s="1">
-        <v>43012.795347222222</v>
+        <v>43033.764004629629</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3</v>
+        <v>306</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>9.1420943557638899E+17</v>
+        <v>9.2234182592237094E+17</v>
       </c>
       <c r="B21" s="1">
-        <v>43008.808900462966</v>
+        <v>43031.250023148146</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -5795,55 +5706,55 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>9.2325286514101798E+17</v>
+        <v>9.2078474275613005E+17</v>
       </c>
       <c r="B22" s="1">
-        <v>43033.764004629629</v>
+        <v>43026.953287037039</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>9.1806252211626304E+17</v>
+        <v>9.2074614747141696E+17</v>
       </c>
       <c r="B23" s="1">
-        <v>43019.441388888888</v>
+        <v>43026.846782407411</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" t="s">
-        <v>361</v>
+        <v>320</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>9.2234182592237094E+17</v>
+        <v>9.2074498177777997E+17</v>
       </c>
       <c r="B24" s="1">
-        <v>43031.250023148146</v>
+        <v>43026.843564814815</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>9.2078474275613005E+17</v>
+        <v>9.2068955749402598E+17</v>
       </c>
       <c r="B25" s="1">
-        <v>43026.953287037039</v>
+        <v>43026.690625000003</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -5851,27 +5762,27 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>9.2074614747141696E+17</v>
+        <v>9.2066560094656499E+17</v>
       </c>
       <c r="B26" s="1">
-        <v>43026.846782407411</v>
+        <v>43026.624525462961</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>9.2074498177777997E+17</v>
+        <v>9.2065268982586496E+17</v>
       </c>
       <c r="B27" s="1">
-        <v>43026.843564814815</v>
+        <v>43026.588888888888</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -5879,86 +5790,16 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>9.2068955749402598E+17</v>
+        <v>9.2039146745287398E+17</v>
       </c>
       <c r="B28" s="1">
-        <v>43026.690625000003</v>
+        <v>43025.868055555555</v>
       </c>
       <c r="C28" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>9.2066560094656499E+17</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43026.624525462961</v>
-      </c>
-      <c r="C29" t="s">
-        <v>336</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>9.2065268982586496E+17</v>
-      </c>
-      <c r="B30" s="1">
-        <v>43026.588888888888</v>
-      </c>
-      <c r="C30" t="s">
-        <v>338</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>9.2039146745287398E+17</v>
-      </c>
-      <c r="B31" s="1">
-        <v>43025.868055555555</v>
-      </c>
-      <c r="C31" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>9.2027193114363405E+17</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43025.538194444445</v>
-      </c>
-      <c r="C32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D32" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>9.1815095441477197E+17</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43019.685416666667</v>
-      </c>
-      <c r="C33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D33" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5970,7 +5811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5991,7 +5832,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6002,7 +5843,7 @@
         <v>42746.456574074073</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -6016,7 +5857,7 @@
         <v>43011.99013888889</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -6030,7 +5871,7 @@
         <v>43011.980081018519</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -6044,7 +5885,7 @@
         <v>42991.1487037037</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -6058,7 +5899,7 @@
         <v>43025.822488425925</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -6072,7 +5913,7 @@
         <v>43020.571817129632</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -6086,7 +5927,7 @@
         <v>43017.552187499998</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -6100,7 +5941,7 @@
         <v>43014.545740740738</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -6114,7 +5955,7 @@
         <v>43012.187557870369</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -6128,7 +5969,7 @@
         <v>43012.135555555556</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -6142,7 +5983,7 @@
         <v>43011.945347222223</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -6156,7 +5997,7 @@
         <v>43011.933217592596</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -6170,7 +6011,7 @@
         <v>43011.907893518517</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -6184,7 +6025,7 @@
         <v>43025.822488425925</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -6198,7 +6039,7 @@
         <v>43020.571817129632</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -6212,7 +6053,7 @@
         <v>43017.552187499998</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -6226,7 +6067,7 @@
         <v>43014.545740740738</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -6240,7 +6081,7 @@
         <v>43012.187557870369</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -6254,7 +6095,7 @@
         <v>43012.135555555556</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -6268,7 +6109,7 @@
         <v>43011.945347222223</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -6282,7 +6123,7 @@
         <v>43011.933217592596</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -6296,7 +6137,7 @@
         <v>43011.907893518517</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -6310,7 +6151,7 @@
         <v>43033.383877314816</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -6324,7 +6165,7 @@
         <v>43033.126331018517</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -6338,7 +6179,7 @@
         <v>43021.585266203707</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -6352,7 +6193,7 @@
         <v>43020.873206018521</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -6366,7 +6207,7 @@
         <v>43020.382476851853</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -6380,7 +6221,7 @@
         <v>43018.862210648149</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -6394,7 +6235,7 @@
         <v>43012.229895833334</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -6408,7 +6249,7 @@
         <v>43022.097233796296</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -6422,7 +6263,7 @@
         <v>43021.511817129627</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -6438,7 +6279,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6458,7 +6299,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6469,7 +6310,7 @@
         <v>42639.762141203704</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6480,7 +6321,7 @@
         <v>43025.543009259258</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6491,7 +6332,7 @@
         <v>43020.948333333334</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6502,7 +6343,7 @@
         <v>43018.862060185187</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6513,7 +6354,7 @@
         <v>43018.693773148145</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6524,7 +6365,7 @@
         <v>43018.649305555555</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6535,7 +6376,7 @@
         <v>43018.612407407411</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6546,7 +6387,7 @@
         <v>43018.538194444445</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
